--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="พลศึกษา" sheetId="3" r:id="rId1"/>
@@ -848,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2240,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,16 +2988,6 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H31" s="1">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="25">

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -9,18 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="พลศึกษา" sheetId="3" r:id="rId1"/>
     <sheet name="นาฏศิลป์" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="grade_edu">Sheet1!$B$2:$C$9</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
   <si>
     <t>มหาวิทยาลัยราชภัฏเพชรบุรี</t>
   </si>
@@ -347,13 +351,49 @@
   </si>
   <si>
     <t>จัดทำข้อสอบโดยใช้ ChatGPT (10)</t>
+  </si>
+  <si>
+    <t>ปลายภาค (50)</t>
+  </si>
+  <si>
+    <t>ปลายภาค (25)</t>
+  </si>
+  <si>
+    <t>รวม</t>
+  </si>
+  <si>
+    <t>เกรด</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -396,6 +436,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
@@ -499,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,8 +575,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -544,26 +614,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -846,10 +898,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,127 +931,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="13" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="J3" s="21" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="J3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="22" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="22" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1009,28 +1064,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1042,10 +1097,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="15"/>
+      <c r="D9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -1073,14 +1128,14 @@
       <c r="N9" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="9">
-        <v>10</v>
-      </c>
-      <c r="P9" s="9">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>12</v>
+      <c r="O9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="R9" s="9">
         <v>13</v>
@@ -1105,10 +1160,10 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -1122,14 +1177,28 @@
         <v>10</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2">
+        <v>10</v>
+      </c>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="Q10" s="2">
+        <f>SUM(F10:N10,P10)</f>
+        <v>65</v>
+      </c>
+      <c r="R10" s="11" t="str">
+        <f>VLOOKUP(Q10,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1144,10 +1213,10 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -1161,14 +1230,28 @@
         <v>10</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="K11" s="11">
+        <v>10</v>
+      </c>
+      <c r="L11" s="11">
+        <v>10</v>
+      </c>
+      <c r="M11" s="11">
+        <v>10</v>
+      </c>
+      <c r="N11" s="11">
+        <v>10</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="Q11" s="11">
+        <f t="shared" ref="Q11:Q37" si="0">SUM(F11:N11,P11)</f>
+        <v>65</v>
+      </c>
+      <c r="R11" s="11" t="str">
+        <f>VLOOKUP(Q11,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1183,10 +1266,10 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1200,14 +1283,28 @@
         <v>10</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="K12" s="11">
+        <v>10</v>
+      </c>
+      <c r="L12" s="11">
+        <v>10</v>
+      </c>
+      <c r="M12" s="11">
+        <v>10</v>
+      </c>
+      <c r="N12" s="11">
+        <v>10</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="Q12" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R12" s="11" t="str">
+        <f>VLOOKUP(Q12,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1222,29 +1319,41 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
       <c r="I13" s="2">
         <v>10</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="K13" s="11">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="Q13" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="R13" s="11" t="str">
+        <f>VLOOKUP(Q13,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1259,10 +1368,10 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1276,14 +1385,28 @@
         <v>10</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="K14" s="11">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>10</v>
+      </c>
+      <c r="N14" s="11">
+        <v>10</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="Q14" s="11">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="R14" s="11" t="str">
+        <f>VLOOKUP(Q14,grade_edu,2)</f>
+        <v>D+</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1298,29 +1421,45 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
       <c r="I15" s="2">
         <v>10</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="K15" s="11">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>10</v>
+      </c>
+      <c r="N15" s="11">
+        <v>10</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="Q15" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R15" s="11" t="str">
+        <f>VLOOKUP(Q15,grade_edu,2)</f>
+        <v>D</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1335,29 +1474,43 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16" s="2">
         <v>10</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="K16" s="11">
+        <v>10</v>
+      </c>
+      <c r="L16" s="11">
+        <v>10</v>
+      </c>
+      <c r="M16" s="11">
+        <v>10</v>
+      </c>
+      <c r="N16" s="11"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="Q16" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R16" s="11" t="str">
+        <f>VLOOKUP(Q16,grade_edu,2)</f>
+        <v>D</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1372,29 +1525,45 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
       <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
       <c r="I17" s="2">
         <v>10</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="K17" s="11">
+        <v>10</v>
+      </c>
+      <c r="L17" s="11">
+        <v>10</v>
+      </c>
+      <c r="M17" s="11">
+        <v>10</v>
+      </c>
+      <c r="N17" s="11">
+        <v>10</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="Q17" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R17" s="11" t="str">
+        <f>VLOOKUP(Q17,grade_edu,2)</f>
+        <v>C</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1409,10 +1578,10 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -1426,14 +1595,28 @@
         <v>10</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="K18" s="11">
+        <v>10</v>
+      </c>
+      <c r="L18" s="11">
+        <v>10</v>
+      </c>
+      <c r="M18" s="11">
+        <v>10</v>
+      </c>
+      <c r="N18" s="11">
+        <v>10</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="Q18" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R18" s="11" t="str">
+        <f>VLOOKUP(Q18,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1448,10 +1631,10 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -1465,14 +1648,28 @@
         <v>10</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="K19" s="11">
+        <v>10</v>
+      </c>
+      <c r="L19" s="11">
+        <v>10</v>
+      </c>
+      <c r="M19" s="11">
+        <v>10</v>
+      </c>
+      <c r="N19" s="11">
+        <v>10</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="Q19" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R19" s="11" t="str">
+        <f>VLOOKUP(Q19,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1487,10 +1684,10 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -1504,14 +1701,28 @@
         <v>10</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="K20" s="11">
+        <v>10</v>
+      </c>
+      <c r="L20" s="11">
+        <v>10</v>
+      </c>
+      <c r="M20" s="11">
+        <v>10</v>
+      </c>
+      <c r="N20" s="11">
+        <v>10</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="Q20" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R20" s="11" t="str">
+        <f>VLOOKUP(Q20,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1524,10 +1735,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -1541,14 +1752,24 @@
         <v>10</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="K21" s="11">
+        <v>10</v>
+      </c>
+      <c r="L21" s="11">
+        <v>10</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="Q21" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R21" s="11" t="str">
+        <f>VLOOKUP(Q21,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1563,29 +1784,45 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
       <c r="G22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
       <c r="I22" s="2">
         <v>10</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="K22" s="11">
+        <v>10</v>
+      </c>
+      <c r="L22" s="11">
+        <v>10</v>
+      </c>
+      <c r="M22" s="11">
+        <v>10</v>
+      </c>
+      <c r="N22" s="11">
+        <v>10</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="Q22" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R22" s="11" t="str">
+        <f>VLOOKUP(Q22,grade_edu,2)</f>
+        <v>C</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1600,10 +1837,10 @@
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="2">
         <v>5</v>
       </c>
@@ -1617,14 +1854,24 @@
         <v>10</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="K23" s="11">
+        <v>10</v>
+      </c>
+      <c r="L23" s="11">
+        <v>10</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="Q23" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R23" s="11" t="str">
+        <f>VLOOKUP(Q23,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -1639,29 +1886,45 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
       <c r="G24" s="2">
         <v>5</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
       <c r="I24" s="2">
         <v>10</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="K24" s="11">
+        <v>10</v>
+      </c>
+      <c r="L24" s="11">
+        <v>10</v>
+      </c>
+      <c r="M24" s="11">
+        <v>10</v>
+      </c>
+      <c r="N24" s="11">
+        <v>10</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="Q24" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R24" s="11" t="str">
+        <f>VLOOKUP(Q24,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -1676,10 +1939,10 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="2">
         <v>5</v>
       </c>
@@ -1693,14 +1956,28 @@
         <v>10</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="K25" s="11">
+        <v>10</v>
+      </c>
+      <c r="L25" s="11">
+        <v>10</v>
+      </c>
+      <c r="M25" s="11">
+        <v>10</v>
+      </c>
+      <c r="N25" s="11">
+        <v>10</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="Q25" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R25" s="11" t="str">
+        <f>VLOOKUP(Q25,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -1715,29 +1992,45 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="2">
         <v>5</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
       <c r="I26" s="2">
         <v>10</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="K26" s="11">
+        <v>10</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>8</v>
+      </c>
+      <c r="N26" s="11">
+        <v>10</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="Q26" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R26" s="11" t="str">
+        <f>VLOOKUP(Q26,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -1752,10 +2045,10 @@
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -1769,14 +2062,28 @@
         <v>10</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="K27" s="11">
+        <v>10</v>
+      </c>
+      <c r="L27" s="11">
+        <v>10</v>
+      </c>
+      <c r="M27" s="11">
+        <v>10</v>
+      </c>
+      <c r="N27" s="11">
+        <v>10</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="Q27" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R27" s="11" t="str">
+        <f>VLOOKUP(Q27,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -1791,29 +2098,41 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
       <c r="G28" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
       <c r="I28" s="2">
         <v>10</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="K28" s="11">
+        <v>10</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="Q28" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R28" s="11" t="str">
+        <f>VLOOKUP(Q28,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -1828,29 +2147,45 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="2">
         <v>5</v>
       </c>
       <c r="G29" s="2">
         <v>5</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
       <c r="I29" s="2">
         <v>10</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="K29" s="11">
+        <v>10</v>
+      </c>
+      <c r="L29" s="11">
+        <v>10</v>
+      </c>
+      <c r="M29" s="11">
+        <v>8</v>
+      </c>
+      <c r="N29" s="11">
+        <v>10</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="Q29" s="11">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R29" s="11" t="str">
+        <f>VLOOKUP(Q29,grade_edu,2)</f>
+        <v>D+</v>
+      </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -1865,10 +2200,10 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -1882,14 +2217,28 @@
         <v>10</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="K30" s="11">
+        <v>10</v>
+      </c>
+      <c r="L30" s="11">
+        <v>10</v>
+      </c>
+      <c r="M30" s="11">
+        <v>10</v>
+      </c>
+      <c r="N30" s="11">
+        <v>8</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="Q30" s="11">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="R30" s="11" t="str">
+        <f>VLOOKUP(Q30,grade_edu,2)</f>
+        <v>C</v>
+      </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -1904,10 +2253,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="2">
         <v>5</v>
       </c>
@@ -1921,14 +2270,24 @@
         <v>10</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="K31" s="11">
+        <v>10</v>
+      </c>
+      <c r="L31" s="11">
+        <v>10</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="Q31" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R31" s="11" t="str">
+        <f>VLOOKUP(Q31,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -1943,29 +2302,43 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="2">
         <v>5</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <v>5</v>
+      </c>
       <c r="I32" s="2">
         <v>10</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="K32" s="11">
+        <v>10</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11">
+        <v>10</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="Q32" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R32" s="11" t="str">
+        <f>VLOOKUP(Q32,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -1980,29 +2353,45 @@
       <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="2">
         <v>5</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
       <c r="I33" s="2">
         <v>10</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="K33" s="11">
+        <v>10</v>
+      </c>
+      <c r="L33" s="11">
+        <v>10</v>
+      </c>
+      <c r="M33" s="11">
+        <v>10</v>
+      </c>
+      <c r="N33" s="11">
+        <v>10</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="Q33" s="11">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="R33" s="11" t="str">
+        <f>VLOOKUP(Q33,grade_edu,2)</f>
+        <v>D+</v>
+      </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -2017,29 +2406,45 @@
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="2">
         <v>5</v>
       </c>
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
       <c r="I34" s="2">
         <v>10</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="K34" s="11">
+        <v>10</v>
+      </c>
+      <c r="L34" s="11">
+        <v>10</v>
+      </c>
+      <c r="M34" s="11">
+        <v>10</v>
+      </c>
+      <c r="N34" s="11">
+        <v>10</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="Q34" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R34" s="11" t="str">
+        <f>VLOOKUP(Q34,grade_edu,2)</f>
+        <v>C</v>
+      </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -2054,29 +2459,41 @@
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="2">
         <v>5</v>
       </c>
       <c r="G35" s="2">
         <v>5</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
       <c r="I35" s="2">
         <v>10</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="K35" s="11">
+        <v>10</v>
+      </c>
+      <c r="L35" s="11">
+        <v>10</v>
+      </c>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="Q35" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R35" s="11" t="str">
+        <f>VLOOKUP(Q35,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -2091,29 +2508,43 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="2">
         <v>5</v>
       </c>
       <c r="G36" s="2">
         <v>5</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
       <c r="I36" s="2">
         <v>10</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="K36" s="11">
+        <v>10</v>
+      </c>
+      <c r="L36" s="11">
+        <v>10</v>
+      </c>
+      <c r="M36" s="11">
+        <v>10</v>
+      </c>
+      <c r="N36" s="11"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="Q36" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R36" s="11" t="str">
+        <f>VLOOKUP(Q36,grade_edu,2)</f>
+        <v>D</v>
+      </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -2128,69 +2559,110 @@
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="2">
         <v>5</v>
       </c>
       <c r="G37" s="2">
         <v>5</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
       <c r="I37" s="2">
         <v>10</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="K37" s="11">
+        <v>10</v>
+      </c>
+      <c r="L37" s="11">
+        <v>10</v>
+      </c>
+      <c r="M37" s="11">
+        <v>8</v>
+      </c>
+      <c r="N37" s="11">
+        <v>10</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
+      <c r="Q37" s="11">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R37" s="11" t="str">
+        <f>VLOOKUP(Q37,grade_edu,2)</f>
+        <v>D+</v>
+      </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="20" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
     </row>
     <row r="39" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A38:E39"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="F38:U38"/>
     <mergeCell ref="J3:U4"/>
     <mergeCell ref="J5:U5"/>
@@ -2207,43 +2679,21 @@
     <mergeCell ref="F8:U8"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A38:E39"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,127 +2720,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="13" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="J3" s="21" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="J3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="22" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="22" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2403,28 +2853,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2436,10 +2886,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="15"/>
+      <c r="D9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -2467,17 +2917,17 @@
       <c r="N9" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="9">
-        <v>10</v>
-      </c>
-      <c r="P9" s="9">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>12</v>
-      </c>
-      <c r="R9" s="9">
-        <v>13</v>
+      <c r="O9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="S9" s="9">
         <v>14</v>
@@ -2499,10 +2949,10 @@
       <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -2515,15 +2965,31 @@
       <c r="I10" s="2">
         <v>10</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="J10" s="2">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2">
+        <v>10</v>
+      </c>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11">
+        <f>SUM(F10:N10,P10)</f>
+        <v>72</v>
+      </c>
+      <c r="R10" s="2" t="str">
+        <f>VLOOKUP(Q10,grade_edu,2)</f>
+        <v>B</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -2538,29 +3004,45 @@
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
       <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
       <c r="I11" s="2">
         <v>10</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>10</v>
+      </c>
+      <c r="L11" s="11">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2">
+        <v>10</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="Q11" s="11">
+        <f t="shared" ref="Q11:Q21" si="0">SUM(F11:N11,P11)</f>
+        <v>50</v>
+      </c>
+      <c r="R11" s="11" t="str">
+        <f>VLOOKUP(Q11,grade_edu,2)</f>
+        <v>D</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -2575,10 +3057,10 @@
       <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -2591,15 +3073,27 @@
       <c r="I12" s="2">
         <v>10</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>10</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="Q12" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R12" s="11" t="str">
+        <f>VLOOKUP(Q12,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -2614,10 +3108,10 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -2630,17 +3124,31 @@
       <c r="I13" s="2">
         <v>10</v>
       </c>
-      <c r="J13" s="2">
-        <v>10</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="J13" s="24">
+        <v>10</v>
+      </c>
+      <c r="K13" s="11">
+        <v>10</v>
+      </c>
+      <c r="L13" s="11">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2">
+        <v>10</v>
+      </c>
+      <c r="N13" s="2">
+        <v>10</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="Q13" s="11">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="R13" s="11" t="str">
+        <f>VLOOKUP(Q13,grade_edu,2)</f>
+        <v>B+</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -2655,10 +3163,10 @@
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -2671,15 +3179,29 @@
       <c r="I14" s="2">
         <v>10</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="J14" s="2">
+        <v>7</v>
+      </c>
+      <c r="K14" s="11">
+        <v>10</v>
+      </c>
+      <c r="L14" s="11">
+        <v>10</v>
+      </c>
+      <c r="M14" s="11">
+        <v>10</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="Q14" s="11">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R14" s="11" t="str">
+        <f>VLOOKUP(Q14,grade_edu,2)</f>
+        <v>C</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -2694,10 +3216,10 @@
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -2710,15 +3232,29 @@
       <c r="I15" s="2">
         <v>10</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>10</v>
+      </c>
+      <c r="L15" s="11">
+        <v>10</v>
+      </c>
+      <c r="M15" s="11">
+        <v>10</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="Q15" s="11">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="R15" s="11" t="str">
+        <f>VLOOKUP(Q15,grade_edu,2)</f>
+        <v>D+</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -2733,10 +3269,10 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -2749,15 +3285,31 @@
       <c r="I16" s="2">
         <v>10</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>10</v>
+      </c>
+      <c r="L16" s="11">
+        <v>10</v>
+      </c>
+      <c r="M16" s="11">
+        <v>10</v>
+      </c>
+      <c r="N16" s="2">
+        <v>10</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="Q16" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R16" s="11" t="str">
+        <f>VLOOKUP(Q16,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -2772,10 +3324,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -2791,14 +3343,26 @@
       <c r="J17" s="2">
         <v>10</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="K17" s="11">
+        <v>10</v>
+      </c>
+      <c r="L17" s="11">
+        <v>10</v>
+      </c>
+      <c r="M17" s="11">
+        <v>10</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="Q17" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R17" s="11" t="str">
+        <f>VLOOKUP(Q17,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -2813,10 +3377,10 @@
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -2829,15 +3393,31 @@
       <c r="I18" s="2">
         <v>10</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>10</v>
+      </c>
+      <c r="L18" s="11">
+        <v>10</v>
+      </c>
+      <c r="M18" s="11">
+        <v>10</v>
+      </c>
+      <c r="N18" s="2">
+        <v>10</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="Q18" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R18" s="11" t="str">
+        <f>VLOOKUP(Q18,grade_edu,2)</f>
+        <v>C+</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -2852,29 +3432,43 @@
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
       <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
       <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="J19" s="2">
+        <v>7</v>
+      </c>
+      <c r="K19" s="11">
+        <v>10</v>
+      </c>
+      <c r="L19" s="11">
+        <v>10</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="Q19" s="11">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="R19" s="11" t="str">
+        <f>VLOOKUP(Q19,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -2889,29 +3483,43 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
       <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
       <c r="I20" s="2">
         <v>10</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <v>10</v>
+      </c>
+      <c r="L20" s="11">
+        <v>10</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="Q20" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R20" s="11" t="str">
+        <f>VLOOKUP(Q20,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -2926,10 +3534,10 @@
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -2942,63 +3550,67 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>10</v>
+      </c>
+      <c r="L21" s="11">
+        <v>10</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="Q21" s="11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="R21" s="11" t="str">
+        <f>VLOOKUP(Q21,grade_edu,2)</f>
+        <v>E</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="20" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
     </row>
     <row r="23" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
     <mergeCell ref="A22:E23"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -3015,9 +3627,96 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
   <si>
     <t>มหาวิทยาลัยราชภัฏเพชรบุรี</t>
   </si>
@@ -578,28 +578,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,8 +593,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -903,8 +903,8 @@
   </sheetPr>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,127 +931,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="J3" s="13" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="J3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="14" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="14" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,28 +1064,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
     </row>
     <row r="9" spans="1:21" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1097,10 +1097,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="23"/>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -1137,8 +1137,8 @@
       <c r="Q9" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="R9" s="9">
-        <v>13</v>
+      <c r="R9" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="S9" s="9">
         <v>14</v>
@@ -1160,10 +1160,10 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>65</v>
       </c>
       <c r="R10" s="11" t="str">
-        <f>VLOOKUP(Q10,grade_edu,2)</f>
+        <f t="shared" ref="R10:R37" si="0">VLOOKUP(Q10,grade_edu,2)</f>
         <v>C+</v>
       </c>
       <c r="S10" s="2"/>
@@ -1213,10 +1213,10 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -1245,11 +1245,11 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="11">
-        <f t="shared" ref="Q11:Q37" si="0">SUM(F11:N11,P11)</f>
+        <f t="shared" ref="Q11:Q37" si="1">SUM(F11:N11,P11)</f>
         <v>65</v>
       </c>
       <c r="R11" s="11" t="str">
-        <f>VLOOKUP(Q11,grade_edu,2)</f>
+        <f t="shared" si="0"/>
         <v>C+</v>
       </c>
       <c r="S11" s="2"/>
@@ -1266,10 +1266,10 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1298,11 +1298,11 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="R12" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R12" s="11" t="str">
-        <f>VLOOKUP(Q12,grade_edu,2)</f>
         <v>C+</v>
       </c>
       <c r="S12" s="2"/>
@@ -1319,10 +1319,10 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -1347,11 +1347,11 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="R13" s="11" t="str">
-        <f>VLOOKUP(Q13,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S13" s="2"/>
@@ -1368,10 +1368,10 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1400,11 +1400,11 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="R14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="R14" s="11" t="str">
-        <f>VLOOKUP(Q14,grade_edu,2)</f>
         <v>D+</v>
       </c>
       <c r="S14" s="2"/>
@@ -1421,10 +1421,10 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -1453,11 +1453,11 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="R15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="R15" s="11" t="str">
-        <f>VLOOKUP(Q15,grade_edu,2)</f>
         <v>D</v>
       </c>
       <c r="S15" s="2"/>
@@ -1474,10 +1474,10 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -1504,11 +1504,11 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="R16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="R16" s="11" t="str">
-        <f>VLOOKUP(Q16,grade_edu,2)</f>
         <v>D</v>
       </c>
       <c r="S16" s="2"/>
@@ -1525,10 +1525,10 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -1557,11 +1557,11 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="R17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="R17" s="11" t="str">
-        <f>VLOOKUP(Q17,grade_edu,2)</f>
         <v>C</v>
       </c>
       <c r="S17" s="2"/>
@@ -1578,10 +1578,10 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -1610,11 +1610,11 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="R18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R18" s="11" t="str">
-        <f>VLOOKUP(Q18,grade_edu,2)</f>
         <v>C+</v>
       </c>
       <c r="S18" s="2"/>
@@ -1631,10 +1631,10 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -1663,11 +1663,11 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="R19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R19" s="11" t="str">
-        <f>VLOOKUP(Q19,grade_edu,2)</f>
         <v>C+</v>
       </c>
       <c r="S19" s="2"/>
@@ -1684,10 +1684,10 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -1716,11 +1716,11 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="R20" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R20" s="11" t="str">
-        <f>VLOOKUP(Q20,grade_edu,2)</f>
         <v>C+</v>
       </c>
       <c r="S20" s="2"/>
@@ -1735,10 +1735,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -1763,11 +1763,11 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="R21" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="R21" s="11" t="str">
-        <f>VLOOKUP(Q21,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S21" s="2"/>
@@ -1784,10 +1784,10 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -1816,11 +1816,11 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="R22" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="R22" s="11" t="str">
-        <f>VLOOKUP(Q22,grade_edu,2)</f>
         <v>C</v>
       </c>
       <c r="S22" s="2"/>
@@ -1837,10 +1837,10 @@
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="2">
         <v>5</v>
       </c>
@@ -1865,11 +1865,11 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="R23" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="R23" s="11" t="str">
-        <f>VLOOKUP(Q23,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S23" s="2"/>
@@ -1886,10 +1886,10 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -1918,11 +1918,11 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="R24" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R24" s="11" t="str">
-        <f>VLOOKUP(Q24,grade_edu,2)</f>
         <v>C+</v>
       </c>
       <c r="S24" s="2"/>
@@ -1939,10 +1939,10 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="2">
         <v>5</v>
       </c>
@@ -1971,11 +1971,11 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="R25" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R25" s="11" t="str">
-        <f>VLOOKUP(Q25,grade_edu,2)</f>
         <v>C+</v>
       </c>
       <c r="S25" s="2"/>
@@ -1992,10 +1992,10 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="2">
         <v>5</v>
       </c>
@@ -2024,11 +2024,11 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="R26" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="R26" s="11" t="str">
-        <f>VLOOKUP(Q26,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S26" s="2"/>
@@ -2045,10 +2045,10 @@
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2077,11 +2077,11 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="R27" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R27" s="11" t="str">
-        <f>VLOOKUP(Q27,grade_edu,2)</f>
         <v>C+</v>
       </c>
       <c r="S27" s="2"/>
@@ -2098,10 +2098,10 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
@@ -2126,11 +2126,11 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="11">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="R28" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="R28" s="11" t="str">
-        <f>VLOOKUP(Q28,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S28" s="2"/>
@@ -2147,10 +2147,10 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="2">
         <v>5</v>
       </c>
@@ -2179,11 +2179,11 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="11">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="R29" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="R29" s="11" t="str">
-        <f>VLOOKUP(Q29,grade_edu,2)</f>
         <v>D+</v>
       </c>
       <c r="S29" s="2"/>
@@ -2200,10 +2200,10 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -2232,11 +2232,11 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="11">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="R30" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="R30" s="11" t="str">
-        <f>VLOOKUP(Q30,grade_edu,2)</f>
         <v>C</v>
       </c>
       <c r="S30" s="2"/>
@@ -2253,10 +2253,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="2">
         <v>5</v>
       </c>
@@ -2281,11 +2281,11 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="R31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="R31" s="11" t="str">
-        <f>VLOOKUP(Q31,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S31" s="2"/>
@@ -2302,10 +2302,10 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="2">
         <v>5</v>
       </c>
@@ -2332,11 +2332,11 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="R32" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="R32" s="11" t="str">
-        <f>VLOOKUP(Q32,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S32" s="2"/>
@@ -2353,10 +2353,10 @@
       <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="2">
         <v>5</v>
       </c>
@@ -2385,11 +2385,11 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="R33" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="R33" s="11" t="str">
-        <f>VLOOKUP(Q33,grade_edu,2)</f>
         <v>D+</v>
       </c>
       <c r="S33" s="2"/>
@@ -2406,10 +2406,10 @@
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="2">
         <v>5</v>
       </c>
@@ -2438,11 +2438,11 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="R34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="R34" s="11" t="str">
-        <f>VLOOKUP(Q34,grade_edu,2)</f>
         <v>C</v>
       </c>
       <c r="S34" s="2"/>
@@ -2459,10 +2459,10 @@
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="2">
         <v>5</v>
       </c>
@@ -2487,11 +2487,11 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="R35" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="R35" s="11" t="str">
-        <f>VLOOKUP(Q35,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S35" s="2"/>
@@ -2508,10 +2508,10 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="15"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="2">
         <v>5</v>
       </c>
@@ -2538,11 +2538,11 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="R36" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="R36" s="11" t="str">
-        <f>VLOOKUP(Q36,grade_edu,2)</f>
         <v>D</v>
       </c>
       <c r="S36" s="2"/>
@@ -2559,10 +2559,10 @@
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="15"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="2">
         <v>5</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I37" s="2">
         <v>10</v>
@@ -2591,53 +2591,78 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="11">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="R37" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="R37" s="11" t="str">
-        <f>VLOOKUP(Q37,grade_edu,2)</f>
-        <v>D+</v>
+        <v>C</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="12" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
     </row>
     <row r="39" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F38:U38"/>
+    <mergeCell ref="J3:U4"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A38:E39"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -2654,31 +2679,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F38:U38"/>
-    <mergeCell ref="J3:U4"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="J6:U6"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2692,8 +2692,8 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10:R21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,127 +2720,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="J3" s="13" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="J3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="14" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="14" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2853,28 +2853,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
     </row>
     <row r="9" spans="1:21" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2886,10 +2886,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="23"/>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -2949,10 +2949,10 @@
       <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>72</v>
       </c>
       <c r="R10" s="2" t="str">
-        <f>VLOOKUP(Q10,grade_edu,2)</f>
+        <f t="shared" ref="R10:R21" si="0">VLOOKUP(Q10,grade_edu,2)</f>
         <v>B</v>
       </c>
       <c r="S10" s="2"/>
@@ -3004,10 +3004,10 @@
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
@@ -3036,12 +3036,12 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="11">
-        <f t="shared" ref="Q11:Q21" si="0">SUM(F11:N11,P11)</f>
-        <v>50</v>
+        <f t="shared" ref="Q11:Q21" si="1">SUM(F11:N11,P11)</f>
+        <v>55</v>
       </c>
       <c r="R11" s="11" t="str">
-        <f>VLOOKUP(Q11,grade_edu,2)</f>
-        <v>D</v>
+        <f t="shared" si="0"/>
+        <v>D+</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -3057,10 +3057,10 @@
       <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -3087,11 +3087,11 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="11">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="R12" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="R12" s="11" t="str">
-        <f>VLOOKUP(Q12,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S12" s="2"/>
@@ -3108,10 +3108,10 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="I13" s="2">
         <v>10</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="12">
         <v>10</v>
       </c>
       <c r="K13" s="11">
@@ -3142,11 +3142,11 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="R13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="R13" s="11" t="str">
-        <f>VLOOKUP(Q13,grade_edu,2)</f>
         <v>B+</v>
       </c>
       <c r="S13" s="2"/>
@@ -3163,10 +3163,10 @@
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -3195,11 +3195,11 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="R14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="R14" s="11" t="str">
-        <f>VLOOKUP(Q14,grade_edu,2)</f>
         <v>C</v>
       </c>
       <c r="S14" s="2"/>
@@ -3216,10 +3216,10 @@
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -3248,11 +3248,11 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="R15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="R15" s="11" t="str">
-        <f>VLOOKUP(Q15,grade_edu,2)</f>
         <v>D+</v>
       </c>
       <c r="S15" s="2"/>
@@ -3269,10 +3269,10 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -3303,11 +3303,11 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="R16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R16" s="11" t="str">
-        <f>VLOOKUP(Q16,grade_edu,2)</f>
         <v>C+</v>
       </c>
       <c r="S16" s="2"/>
@@ -3324,10 +3324,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -3356,11 +3356,11 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="R17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R17" s="11" t="str">
-        <f>VLOOKUP(Q17,grade_edu,2)</f>
         <v>C+</v>
       </c>
       <c r="S17" s="2"/>
@@ -3377,10 +3377,10 @@
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -3411,11 +3411,11 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="R18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R18" s="11" t="str">
-        <f>VLOOKUP(Q18,grade_edu,2)</f>
         <v>C+</v>
       </c>
       <c r="S18" s="2"/>
@@ -3432,10 +3432,10 @@
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -3462,11 +3462,11 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="11">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="R19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="R19" s="11" t="str">
-        <f>VLOOKUP(Q19,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S19" s="2"/>
@@ -3483,10 +3483,10 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -3513,11 +3513,11 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="R20" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="R20" s="11" t="str">
-        <f>VLOOKUP(Q20,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S20" s="2"/>
@@ -3534,10 +3534,10 @@
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -3564,11 +3564,11 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="R21" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="R21" s="11" t="str">
-        <f>VLOOKUP(Q21,grade_edu,2)</f>
         <v>E</v>
       </c>
       <c r="S21" s="2"/>
@@ -3576,41 +3576,50 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="12" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
     </row>
     <row r="23" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A22:E23"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -3627,15 +3636,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Suwat-66\teach\66-1\grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Stores\Work2553\งานสอน\66-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="พลศึกษา" sheetId="3" r:id="rId1"/>
@@ -581,6 +581,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -592,30 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -903,8 +903,8 @@
   </sheetPr>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,26 +936,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -970,34 +970,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1011,20 +1011,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -1038,20 +1038,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,28 +1064,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1097,10 +1097,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="D9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -1160,10 +1160,10 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -1213,10 +1213,10 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -1266,10 +1266,10 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1319,10 +1319,10 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -1368,10 +1368,10 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1421,10 +1421,10 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2">
         <v>10</v>
@@ -1442,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M15" s="11">
         <v>10</v>
@@ -1454,11 +1454,11 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="11">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="R15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
+        <v>C+</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1474,10 +1474,10 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -1525,10 +1525,10 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2">
         <v>10</v>
@@ -1558,11 +1558,11 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="11">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>C+</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1578,10 +1578,10 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -1631,10 +1631,10 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -1684,10 +1684,10 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -1735,10 +1735,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -1784,10 +1784,10 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -1837,10 +1837,10 @@
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2">
         <v>5</v>
       </c>
@@ -1886,10 +1886,10 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -1939,10 +1939,10 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="2">
         <v>5</v>
       </c>
@@ -1992,10 +1992,10 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="2">
         <v>5</v>
       </c>
@@ -2045,10 +2045,10 @@
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2098,10 +2098,10 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
@@ -2147,10 +2147,10 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="2">
         <v>5</v>
       </c>
@@ -2200,10 +2200,10 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -2253,10 +2253,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="2">
         <v>5</v>
       </c>
@@ -2302,10 +2302,10 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="2">
         <v>5</v>
       </c>
@@ -2353,10 +2353,10 @@
       <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="2">
         <v>5</v>
       </c>
@@ -2406,10 +2406,10 @@
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="2">
         <v>5</v>
       </c>
@@ -2459,10 +2459,10 @@
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="2">
         <v>5</v>
       </c>
@@ -2508,10 +2508,10 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="2">
         <v>5</v>
       </c>
@@ -2559,10 +2559,10 @@
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="2">
         <v>5</v>
       </c>
@@ -2603,41 +2603,66 @@
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="21" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
     </row>
     <row r="39" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A38:E39"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="F38:U38"/>
     <mergeCell ref="J3:U4"/>
     <mergeCell ref="J5:U5"/>
@@ -2654,31 +2679,6 @@
     <mergeCell ref="F8:U8"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A38:E39"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2692,8 +2692,8 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,26 +2725,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -2759,34 +2759,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -2800,20 +2800,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -2827,20 +2827,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2853,28 +2853,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2886,10 +2886,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="D9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -2949,10 +2949,10 @@
       <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -3004,10 +3004,10 @@
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11" s="11">
         <v>10</v>
@@ -3037,11 +3037,11 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="11">
         <f t="shared" ref="Q11:Q21" si="1">SUM(F11:N11,P11)</f>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="R11" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>D+</v>
+        <v>C+</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -3057,10 +3057,10 @@
       <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -3108,10 +3108,10 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -3163,10 +3163,10 @@
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -3216,10 +3216,10 @@
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -3269,10 +3269,10 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K16" s="11">
         <v>10</v>
@@ -3304,11 +3304,11 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="11">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>B+</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -3324,10 +3324,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -3377,10 +3377,10 @@
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -3432,10 +3432,10 @@
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19" s="2">
         <v>10</v>
@@ -3457,17 +3457,21 @@
       <c r="L19" s="11">
         <v>10</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="2">
+        <v>10</v>
+      </c>
+      <c r="N19" s="2">
+        <v>10</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="11">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="R19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -3483,10 +3487,10 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -3534,10 +3538,10 @@
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -3576,50 +3580,41 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="21" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
     </row>
     <row r="23" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A22:E23"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -3636,6 +3631,15 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -903,8 +903,8 @@
   </sheetPr>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
     </row>
-    <row r="9" spans="1:21" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1140,15 +1140,9 @@
       <c r="R9" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="9">
-        <v>14</v>
-      </c>
-      <c r="T9" s="9">
-        <v>15</v>
-      </c>
-      <c r="U9" s="9">
-        <v>16</v>
-      </c>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -2708,8 +2702,8 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,7 +2886,7 @@
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
     </row>
-    <row r="9" spans="1:21" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2945,15 +2939,9 @@
       <c r="R9" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="9">
-        <v>14</v>
-      </c>
-      <c r="T9" s="9">
-        <v>15</v>
-      </c>
-      <c r="U9" s="9">
-        <v>16</v>
-      </c>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3667,7 +3655,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -581,6 +581,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -592,30 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,13 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,26 +933,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -970,34 +967,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1011,20 +1008,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -1038,20 +1035,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,28 +1061,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1097,10 +1094,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="D9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -1154,10 +1151,10 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -1207,10 +1204,10 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -1260,10 +1257,10 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1313,10 +1310,10 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -1362,10 +1359,10 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1417,10 +1414,10 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -1470,10 +1467,10 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -1521,10 +1518,10 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -1574,10 +1571,10 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -1627,10 +1624,10 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -1682,10 +1679,10 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -1735,10 +1732,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -1784,10 +1781,10 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -1837,10 +1834,10 @@
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2">
         <v>5</v>
       </c>
@@ -1888,10 +1885,10 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -1941,10 +1938,10 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="2">
         <v>5</v>
       </c>
@@ -1994,10 +1991,10 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="2">
         <v>5</v>
       </c>
@@ -2049,10 +2046,10 @@
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2104,10 +2101,10 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
@@ -2153,10 +2150,10 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="2">
         <v>5</v>
       </c>
@@ -2206,10 +2203,10 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -2261,10 +2258,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="2">
         <v>5</v>
       </c>
@@ -2312,10 +2309,10 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="2">
         <v>5</v>
       </c>
@@ -2363,10 +2360,10 @@
       <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="2">
         <v>5</v>
       </c>
@@ -2416,10 +2413,10 @@
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="2">
         <v>5</v>
       </c>
@@ -2469,10 +2466,10 @@
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="2">
         <v>5</v>
       </c>
@@ -2518,10 +2515,10 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="2">
         <v>5</v>
       </c>
@@ -2569,10 +2566,10 @@
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="2">
         <v>5</v>
       </c>
@@ -2613,41 +2610,66 @@
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="21" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
     </row>
     <row r="39" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A38:E39"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="F38:U38"/>
     <mergeCell ref="J3:U4"/>
     <mergeCell ref="J5:U5"/>
@@ -2664,46 +2686,18 @@
     <mergeCell ref="F8:U8"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A38:E39"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,26 +2729,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -2769,34 +2763,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -2810,20 +2804,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -2837,20 +2831,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2863,28 +2857,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2896,10 +2890,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="D9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -2953,10 +2947,10 @@
       <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -3008,10 +3002,10 @@
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -3061,10 +3055,10 @@
       <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -3112,10 +3106,10 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -3167,10 +3161,10 @@
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -3220,10 +3214,10 @@
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -3273,10 +3267,10 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -3328,10 +3322,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -3381,10 +3375,10 @@
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -3436,10 +3430,10 @@
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -3491,10 +3485,10 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -3542,10 +3536,10 @@
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -3584,50 +3578,41 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="21" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
     </row>
     <row r="23" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A22:E23"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -3644,9 +3629,18 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -581,19 +581,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,17 +605,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -933,26 +933,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -967,34 +967,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1008,20 +1008,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -1035,20 +1035,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,28 +1061,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1094,10 +1094,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -1151,10 +1151,10 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -1204,10 +1204,10 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -1257,10 +1257,10 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1310,10 +1310,10 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -1359,10 +1359,10 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1414,10 +1414,10 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -1467,10 +1467,10 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -1518,10 +1518,10 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -1571,10 +1571,10 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -1624,10 +1624,10 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -1679,10 +1679,10 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -1732,10 +1732,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -1781,10 +1781,10 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -1834,10 +1834,10 @@
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="2">
         <v>5</v>
       </c>
@@ -1885,10 +1885,10 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -1938,10 +1938,10 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="2">
         <v>5</v>
       </c>
@@ -1991,10 +1991,10 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="2">
         <v>5</v>
       </c>
@@ -2046,10 +2046,10 @@
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2101,10 +2101,10 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
@@ -2150,10 +2150,10 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="2">
         <v>5</v>
       </c>
@@ -2203,10 +2203,10 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -2258,10 +2258,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="2">
         <v>5</v>
       </c>
@@ -2309,10 +2309,10 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="2">
         <v>5</v>
       </c>
@@ -2360,10 +2360,10 @@
       <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="2">
         <v>5</v>
       </c>
@@ -2413,10 +2413,10 @@
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="2">
         <v>5</v>
       </c>
@@ -2466,10 +2466,10 @@
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="2">
         <v>5</v>
       </c>
@@ -2515,10 +2515,10 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="2">
         <v>5</v>
       </c>
@@ -2566,10 +2566,10 @@
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="2">
         <v>5</v>
       </c>
@@ -2610,41 +2610,66 @@
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="13" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
     </row>
     <row r="39" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F38:U38"/>
+    <mergeCell ref="J3:U4"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A38:E39"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -2661,31 +2686,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F38:U38"/>
-    <mergeCell ref="J3:U4"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="J6:U6"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2696,7 +2696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -2729,26 +2729,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -2763,34 +2763,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -2804,20 +2804,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -2831,20 +2831,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2857,28 +2857,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2890,10 +2890,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -2947,10 +2947,10 @@
       <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -3002,10 +3002,10 @@
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -3055,10 +3055,10 @@
       <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -3106,10 +3106,10 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -3161,10 +3161,10 @@
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -3214,10 +3214,10 @@
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -3267,10 +3267,10 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -3322,10 +3322,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -3350,16 +3350,18 @@
       <c r="M17" s="11">
         <v>10</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" s="2">
+        <v>10</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="11">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>B+</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -3375,10 +3377,10 @@
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -3430,10 +3432,10 @@
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -3485,10 +3487,10 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -3536,10 +3538,10 @@
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -3578,41 +3580,50 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="13" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
     </row>
     <row r="23" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A22:E23"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -3629,15 +3640,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="พลศึกษา" sheetId="3" r:id="rId1"/>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,7 +2582,9 @@
       <c r="I37" s="2">
         <v>10</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2">
+        <v>10</v>
+      </c>
       <c r="K37" s="11">
         <v>10</v>
       </c>
@@ -2599,11 +2601,11 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="11">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="R37" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -2696,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,16 +3191,18 @@
       <c r="M14" s="11">
         <v>10</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2">
+        <v>10</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="11">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="R14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="พลศึกษา" sheetId="3" r:id="rId1"/>
@@ -581,6 +581,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -592,30 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:U38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,26 +933,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -967,34 +967,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1008,20 +1008,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -1035,20 +1035,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,28 +1061,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1094,10 +1094,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="D9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -1151,10 +1151,10 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -1204,10 +1204,10 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -1257,10 +1257,10 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1310,10 +1310,10 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -1359,10 +1359,10 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1414,10 +1414,10 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -1467,10 +1467,10 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -1518,10 +1518,10 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -1534,7 +1534,9 @@
       <c r="I17" s="2">
         <v>10</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>10</v>
+      </c>
       <c r="K17" s="11">
         <v>10</v>
       </c>
@@ -1551,11 +1553,11 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="11">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>B+</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1571,10 +1573,10 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -1624,10 +1626,10 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -1679,10 +1681,10 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -1732,10 +1734,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -1781,10 +1783,10 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -1834,10 +1836,10 @@
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2">
         <v>5</v>
       </c>
@@ -1885,10 +1887,10 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -1938,10 +1940,10 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="2">
         <v>5</v>
       </c>
@@ -1991,10 +1993,10 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="2">
         <v>5</v>
       </c>
@@ -2046,10 +2048,10 @@
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2101,10 +2103,10 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
@@ -2150,10 +2152,10 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="2">
         <v>5</v>
       </c>
@@ -2203,10 +2205,10 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -2258,10 +2260,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="2">
         <v>5</v>
       </c>
@@ -2309,10 +2311,10 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="2">
         <v>5</v>
       </c>
@@ -2360,10 +2362,10 @@
       <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="2">
         <v>5</v>
       </c>
@@ -2413,10 +2415,10 @@
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="2">
         <v>5</v>
       </c>
@@ -2466,10 +2468,10 @@
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="2">
         <v>5</v>
       </c>
@@ -2515,10 +2517,10 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="2">
         <v>5</v>
       </c>
@@ -2566,10 +2568,10 @@
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="2">
         <v>5</v>
       </c>
@@ -2612,41 +2614,66 @@
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="21" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
     </row>
     <row r="39" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A38:E39"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="F38:U38"/>
     <mergeCell ref="J3:U4"/>
     <mergeCell ref="J5:U5"/>
@@ -2663,31 +2690,6 @@
     <mergeCell ref="F8:U8"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A38:E39"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2698,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,26 +2733,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -2765,34 +2767,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -2806,20 +2808,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -2833,20 +2835,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,28 +2861,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2892,10 +2894,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="D9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -2949,10 +2951,10 @@
       <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -3004,10 +3006,10 @@
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -3057,10 +3059,10 @@
       <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -3108,10 +3110,10 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -3163,10 +3165,10 @@
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -3218,10 +3220,10 @@
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -3271,10 +3273,10 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -3326,10 +3328,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -3381,10 +3383,10 @@
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -3436,10 +3438,10 @@
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -3491,10 +3493,10 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -3542,10 +3544,10 @@
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -3584,50 +3586,41 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="21" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
     </row>
     <row r="23" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A22:E23"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -3644,6 +3637,15 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -581,19 +581,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,17 +605,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -901,7 +901,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,26 +933,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -967,34 +967,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1008,20 +1008,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -1035,20 +1035,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,28 +1061,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1094,10 +1094,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -1151,10 +1151,10 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -1204,10 +1204,10 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -1257,10 +1257,10 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1310,10 +1310,10 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -1359,10 +1359,10 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1414,10 +1414,10 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -1467,10 +1467,10 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -1518,10 +1518,10 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -1573,10 +1573,10 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -1626,10 +1626,10 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -1681,10 +1681,10 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -1734,10 +1734,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -1783,10 +1783,10 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -1836,10 +1836,10 @@
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="2">
         <v>5</v>
       </c>
@@ -1862,16 +1862,18 @@
         <v>10</v>
       </c>
       <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="N23" s="11">
+        <v>10</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="11">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="R23" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>D+</v>
+        <v>C+</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -1887,10 +1889,10 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -1940,10 +1942,10 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="2">
         <v>5</v>
       </c>
@@ -1993,10 +1995,10 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="2">
         <v>5</v>
       </c>
@@ -2048,10 +2050,10 @@
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2103,10 +2105,10 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
@@ -2152,10 +2154,10 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="2">
         <v>5</v>
       </c>
@@ -2205,10 +2207,10 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -2260,10 +2262,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="2">
         <v>5</v>
       </c>
@@ -2311,10 +2313,10 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="2">
         <v>5</v>
       </c>
@@ -2362,10 +2364,10 @@
       <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="2">
         <v>5</v>
       </c>
@@ -2415,10 +2417,10 @@
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="2">
         <v>5</v>
       </c>
@@ -2468,10 +2470,10 @@
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="2">
         <v>5</v>
       </c>
@@ -2517,10 +2519,10 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="2">
         <v>5</v>
       </c>
@@ -2568,10 +2570,10 @@
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="2">
         <v>5</v>
       </c>
@@ -2614,41 +2616,66 @@
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="13" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
     </row>
     <row r="39" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F38:U38"/>
+    <mergeCell ref="J3:U4"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A38:E39"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -2665,31 +2692,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F38:U38"/>
-    <mergeCell ref="J3:U4"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="J6:U6"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2701,7 +2703,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,26 +2735,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -2767,34 +2769,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -2808,20 +2810,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -2835,20 +2837,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2861,28 +2863,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2894,10 +2896,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -2951,10 +2953,10 @@
       <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -3006,10 +3008,10 @@
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -3059,10 +3061,10 @@
       <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -3110,10 +3112,10 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -3165,10 +3167,10 @@
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -3220,10 +3222,10 @@
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -3273,10 +3275,10 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -3328,10 +3330,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -3383,10 +3385,10 @@
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -3438,10 +3440,10 @@
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -3493,10 +3495,10 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -3544,10 +3546,10 @@
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -3586,41 +3588,50 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="13" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
     </row>
     <row r="23" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A22:E23"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -3637,15 +3648,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -581,6 +581,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -592,30 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,26 +933,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -967,34 +967,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1008,20 +1008,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -1035,20 +1035,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,28 +1061,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1094,10 +1094,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="D9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -1151,10 +1151,10 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -1204,10 +1204,10 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -1257,10 +1257,10 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1310,10 +1310,10 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -1359,10 +1359,10 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1414,10 +1414,10 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -1430,7 +1430,9 @@
       <c r="I15" s="2">
         <v>10</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <v>10</v>
+      </c>
       <c r="K15" s="11">
         <v>10</v>
       </c>
@@ -1447,11 +1449,11 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="11">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>B+</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1467,10 +1469,10 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -1483,7 +1485,9 @@
       <c r="I16" s="2">
         <v>10</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>10</v>
+      </c>
       <c r="K16" s="11">
         <v>10</v>
       </c>
@@ -1498,11 +1502,11 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="11">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1518,10 +1522,10 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -1573,10 +1577,10 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -1626,10 +1630,10 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -1681,10 +1685,10 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -1734,10 +1738,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -1783,10 +1787,10 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -1799,7 +1803,9 @@
       <c r="I22" s="2">
         <v>10</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <v>10</v>
+      </c>
       <c r="K22" s="11">
         <v>10</v>
       </c>
@@ -1816,11 +1822,11 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="11">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R22" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -1836,10 +1842,10 @@
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2">
         <v>5</v>
       </c>
@@ -1889,10 +1895,10 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -1942,10 +1948,10 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="2">
         <v>5</v>
       </c>
@@ -1995,10 +2001,10 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="2">
         <v>5</v>
       </c>
@@ -2050,10 +2056,10 @@
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2105,10 +2111,10 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
@@ -2154,10 +2160,10 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="2">
         <v>5</v>
       </c>
@@ -2170,7 +2176,9 @@
       <c r="I29" s="2">
         <v>10</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2">
+        <v>10</v>
+      </c>
       <c r="K29" s="11">
         <v>10</v>
       </c>
@@ -2187,11 +2195,11 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="11">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="R29" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>D+</v>
+        <v>C+</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -2207,10 +2215,10 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -2262,10 +2270,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="2">
         <v>5</v>
       </c>
@@ -2313,10 +2321,10 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="2">
         <v>5</v>
       </c>
@@ -2364,10 +2372,10 @@
       <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="2">
         <v>5</v>
       </c>
@@ -2417,10 +2425,10 @@
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="2">
         <v>5</v>
       </c>
@@ -2433,7 +2441,9 @@
       <c r="I34" s="2">
         <v>10</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2">
+        <v>10</v>
+      </c>
       <c r="K34" s="11">
         <v>10</v>
       </c>
@@ -2450,11 +2460,11 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="11">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -2470,10 +2480,10 @@
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="2">
         <v>5</v>
       </c>
@@ -2519,10 +2529,10 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="2">
         <v>5</v>
       </c>
@@ -2530,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="H36" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36" s="2">
         <v>10</v>
@@ -2545,16 +2555,18 @@
       <c r="M36" s="11">
         <v>10</v>
       </c>
-      <c r="N36" s="11"/>
+      <c r="N36" s="11">
+        <v>10</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="11">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="R36" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
+        <v>C+</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -2570,10 +2582,10 @@
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="2">
         <v>5</v>
       </c>
@@ -2616,41 +2628,66 @@
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="21" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
     </row>
     <row r="39" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A38:E39"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="F38:U38"/>
     <mergeCell ref="J3:U4"/>
     <mergeCell ref="J5:U5"/>
@@ -2667,31 +2704,6 @@
     <mergeCell ref="F8:U8"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A38:E39"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2702,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,26 +2747,26 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -2769,34 +2781,34 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -2810,20 +2822,20 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -2837,20 +2849,20 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2863,28 +2875,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2896,10 +2908,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="D9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -2953,10 +2965,10 @@
       <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -3008,10 +3020,10 @@
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -3036,16 +3048,18 @@
       <c r="M11" s="2">
         <v>10</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2">
+        <v>10</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="11">
         <f t="shared" ref="Q11:Q21" si="1">SUM(F11:N11,P11)</f>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R11" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>B+</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -3061,10 +3075,10 @@
       <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -3112,10 +3126,10 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -3167,10 +3181,10 @@
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -3222,10 +3236,10 @@
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -3275,10 +3289,10 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -3330,10 +3344,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -3385,10 +3399,10 @@
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -3440,10 +3454,10 @@
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -3495,10 +3509,10 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -3546,10 +3560,10 @@
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -3588,50 +3602,41 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="21" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
     </row>
     <row r="23" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A22:E23"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -3648,6 +3653,15 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Stores\Work2553\งานสอน\66-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teacher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="พลศึกษา" sheetId="3" r:id="rId1"/>
@@ -619,7 +619,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="ปกติ 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1167,9 @@
       <c r="I10" s="2">
         <v>10</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
       <c r="K10" s="2">
         <v>10</v>
       </c>
@@ -1184,11 +1186,11 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2">
         <f>SUM(F10:N10,P10)</f>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R10" s="11" t="str">
         <f t="shared" ref="R10:R37" si="0">VLOOKUP(Q10,grade_edu,2)</f>
-        <v>C+</v>
+        <v>B+</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1220,7 +1222,9 @@
       <c r="I11" s="2">
         <v>10</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
       <c r="K11" s="11">
         <v>10</v>
       </c>
@@ -1237,11 +1241,11 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="11">
         <f t="shared" ref="Q11:Q37" si="1">SUM(F11:N11,P11)</f>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R11" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>B+</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1273,7 +1277,9 @@
       <c r="I12" s="2">
         <v>10</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
       <c r="K12" s="11">
         <v>10</v>
       </c>
@@ -1290,11 +1296,11 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="11">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R12" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>B+</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1480,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2">
         <v>10</v>
@@ -1497,16 +1503,18 @@
       <c r="M16" s="11">
         <v>10</v>
       </c>
-      <c r="N16" s="11"/>
+      <c r="N16" s="11">
+        <v>10</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="11">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="R16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>B+</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1746,28 +1754,34 @@
         <v>5</v>
       </c>
       <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2"/>
       <c r="K21" s="11">
         <v>10</v>
       </c>
       <c r="L21" s="11">
         <v>10</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="11">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1798,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="2">
         <v>10</v>
@@ -1822,11 +1836,11 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="11">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R22" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -1867,7 +1881,9 @@
       <c r="L23" s="11">
         <v>10</v>
       </c>
-      <c r="M23" s="11"/>
+      <c r="M23" s="11">
+        <v>10</v>
+      </c>
       <c r="N23" s="11">
         <v>10</v>
       </c>
@@ -1875,11 +1891,11 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="11">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R23" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
+        <v>B+</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -2012,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2">
         <v>10</v>
@@ -2024,7 +2040,7 @@
         <v>10</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M26" s="11">
         <v>8</v>
@@ -2036,11 +2052,11 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="11">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="R26" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>D+</v>
+        <v>B</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -2295,17 +2311,21 @@
       <c r="L31" s="11">
         <v>10</v>
       </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="M31" s="11">
+        <v>10</v>
+      </c>
+      <c r="N31" s="11">
+        <v>10</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="11">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="R31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>D+</v>
+        <v>B+</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -2337,14 +2357,18 @@
       <c r="I32" s="2">
         <v>10</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2">
+        <v>10</v>
+      </c>
       <c r="K32" s="11">
         <v>10</v>
       </c>
       <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="M32" s="11">
+        <v>5</v>
+      </c>
       <c r="N32" s="11">
         <v>10</v>
       </c>
@@ -2352,11 +2376,11 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="11">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="R32" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>C+</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -2436,7 +2460,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I34" s="2">
         <v>10</v>
@@ -2460,11 +2484,11 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="11">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teacher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="พลศึกษา" sheetId="3" r:id="rId1"/>
     <sheet name="นาฏศิลป์" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="GradeTable" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="grade_edu">Sheet1!$B$2:$C$9</definedName>
+    <definedName name="grade_edu">GradeTable!$B$2:$C$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -393,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -445,8 +445,24 @@
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,8 +479,13 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -540,12 +561,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,28 +718,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,9 +733,88 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ปกติ 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -635,8 +830,106 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="1314450"/>
+          <a:ext cx="714375" cy="8086725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305551" y="1314450"/>
+          <a:ext cx="704850" cy="4343400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -900,11 +1193,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
@@ -927,131 +1220,131 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:21" ht="25.5" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-    </row>
-    <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="1:21" ht="2.25" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="J3" s="14" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="J3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-    </row>
-    <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-    </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+    </row>
+    <row r="4" spans="1:21" ht="2.25" customHeight="1">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="15" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="15" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-    </row>
-    <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+    </row>
+    <row r="7" spans="1:21" ht="2.25" customHeight="1"/>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1061,30 +1354,30 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-    </row>
-    <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" ht="122.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1094,10 +1387,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="D9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -1128,20 +1421,20 @@
       <c r="O9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="31"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1151,10 +1444,10 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -1182,21 +1475,26 @@
       <c r="N10" s="2">
         <v>10</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2">
+      <c r="O10" s="2">
+        <v>37</v>
+      </c>
+      <c r="P10" s="26">
+        <f>O10/2</f>
+        <v>18.5</v>
+      </c>
+      <c r="Q10" s="29">
         <f>SUM(F10:N10,P10)</f>
-        <v>75</v>
-      </c>
-      <c r="R10" s="11" t="str">
+        <v>93.5</v>
+      </c>
+      <c r="R10" s="29" t="str">
         <f t="shared" ref="R10:R37" si="0">VLOOKUP(Q10,grade_edu,2)</f>
-        <v>B+</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+    </row>
+    <row r="11" spans="1:21" ht="18" customHeight="1">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -1206,10 +1504,10 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -1237,398 +1535,438 @@
       <c r="N11" s="11">
         <v>10</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="11">
-        <f t="shared" ref="Q11:Q37" si="1">SUM(F11:N11,P11)</f>
-        <v>75</v>
-      </c>
-      <c r="R11" s="11" t="str">
+      <c r="O11" s="2">
+        <v>38</v>
+      </c>
+      <c r="P11" s="26">
+        <f t="shared" ref="P11:P37" si="1">O11/2</f>
+        <v>19</v>
+      </c>
+      <c r="Q11" s="27">
+        <f t="shared" ref="Q11:Q37" si="2">SUM(F11:N11,P11)</f>
+        <v>94</v>
+      </c>
+      <c r="R11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+    </row>
+    <row r="12" spans="1:21" ht="18" customHeight="1">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
+      <c r="K12" s="11">
+        <v>10</v>
+      </c>
+      <c r="L12" s="11">
+        <v>10</v>
+      </c>
+      <c r="M12" s="11">
+        <v>10</v>
+      </c>
+      <c r="N12" s="11">
+        <v>10</v>
+      </c>
+      <c r="O12" s="2">
+        <v>38</v>
+      </c>
+      <c r="P12" s="26">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="Q12" s="27">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="R12" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="11">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="2">
+        <v>31</v>
+      </c>
+      <c r="P13" s="26">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q13" s="27">
+        <f t="shared" si="2"/>
+        <v>40.5</v>
+      </c>
+      <c r="R13" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" customHeight="1">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <v>10</v>
+      </c>
+      <c r="K14" s="11">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>10</v>
+      </c>
+      <c r="N14" s="11">
+        <v>10</v>
+      </c>
+      <c r="O14" s="2">
+        <v>15</v>
+      </c>
+      <c r="P14" s="26">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="Q14" s="27">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="R14" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10</v>
+      </c>
+      <c r="M15" s="11">
+        <v>10</v>
+      </c>
+      <c r="N15" s="11">
+        <v>10</v>
+      </c>
+      <c r="O15" s="2">
+        <v>24</v>
+      </c>
+      <c r="P15" s="26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Q15" s="27">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="R15" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" customHeight="1">
+      <c r="A16" s="4">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <v>10</v>
+      </c>
+      <c r="K16" s="11">
+        <v>10</v>
+      </c>
+      <c r="L16" s="11">
+        <v>10</v>
+      </c>
+      <c r="M16" s="11">
+        <v>10</v>
+      </c>
+      <c r="N16" s="11">
+        <v>10</v>
+      </c>
+      <c r="O16" s="2">
+        <v>24</v>
+      </c>
+      <c r="P16" s="26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Q16" s="27">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="R16" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A17" s="4">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
+        <v>10</v>
+      </c>
+      <c r="K17" s="11">
+        <v>10</v>
+      </c>
+      <c r="L17" s="11">
+        <v>10</v>
+      </c>
+      <c r="M17" s="11">
+        <v>10</v>
+      </c>
+      <c r="N17" s="11">
+        <v>10</v>
+      </c>
+      <c r="O17" s="2">
+        <v>27</v>
+      </c>
+      <c r="P17" s="26">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="Q17" s="27">
+        <f t="shared" si="2"/>
+        <v>88.5</v>
+      </c>
+      <c r="R17" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+    </row>
+    <row r="18" spans="1:21" ht="18" customHeight="1">
+      <c r="A18" s="4">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="11">
+        <v>10</v>
+      </c>
+      <c r="L18" s="11">
+        <v>10</v>
+      </c>
+      <c r="M18" s="11">
+        <v>10</v>
+      </c>
+      <c r="N18" s="11">
+        <v>10</v>
+      </c>
+      <c r="O18" s="2">
+        <v>22</v>
+      </c>
+      <c r="P18" s="26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q18" s="27">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="R18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
-        <v>10</v>
-      </c>
-      <c r="K12" s="11">
-        <v>10</v>
-      </c>
-      <c r="L12" s="11">
-        <v>10</v>
-      </c>
-      <c r="M12" s="11">
-        <v>10</v>
-      </c>
-      <c r="N12" s="11">
-        <v>10</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="11">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R12" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="11">
-        <v>10</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="11">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="R13" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
-        <v>10</v>
-      </c>
-      <c r="K14" s="11">
-        <v>10</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
-        <v>10</v>
-      </c>
-      <c r="N14" s="11">
-        <v>10</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="11">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="R14" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>C+</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="2">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
-        <v>10</v>
-      </c>
-      <c r="K15" s="11">
-        <v>10</v>
-      </c>
-      <c r="L15" s="2">
-        <v>10</v>
-      </c>
-      <c r="M15" s="11">
-        <v>10</v>
-      </c>
-      <c r="N15" s="11">
-        <v>10</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="11">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R15" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
-        <v>10</v>
-      </c>
-      <c r="K16" s="11">
-        <v>10</v>
-      </c>
-      <c r="L16" s="11">
-        <v>10</v>
-      </c>
-      <c r="M16" s="11">
-        <v>10</v>
-      </c>
-      <c r="N16" s="11">
-        <v>10</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="11">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R16" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2">
-        <v>10</v>
-      </c>
-      <c r="J17" s="2">
-        <v>10</v>
-      </c>
-      <c r="K17" s="11">
-        <v>10</v>
-      </c>
-      <c r="L17" s="11">
-        <v>10</v>
-      </c>
-      <c r="M17" s="11">
-        <v>10</v>
-      </c>
-      <c r="N17" s="11">
-        <v>10</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="11">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R17" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>10</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="11">
-        <v>10</v>
-      </c>
-      <c r="L18" s="11">
-        <v>10</v>
-      </c>
-      <c r="M18" s="11">
-        <v>10</v>
-      </c>
-      <c r="N18" s="11">
-        <v>10</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="11">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="R18" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>C+</v>
-      </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+    </row>
+    <row r="19" spans="1:21" ht="18" customHeight="1">
       <c r="A19" s="4">
         <v>10</v>
       </c>
@@ -1638,10 +1976,10 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -1669,21 +2007,26 @@
       <c r="N19" s="11">
         <v>10</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="11">
+      <c r="O19" s="2">
+        <v>24</v>
+      </c>
+      <c r="P19" s="26">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R19" s="11" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="27">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="R19" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+    </row>
+    <row r="20" spans="1:21" ht="18.75" customHeight="1">
       <c r="A20" s="4">
         <v>11</v>
       </c>
@@ -1693,10 +2036,10 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -1724,21 +2067,26 @@
       <c r="N20" s="11">
         <v>10</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="11">
+      <c r="O20" s="2">
+        <v>27</v>
+      </c>
+      <c r="P20" s="26">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R20" s="11" t="str">
+        <v>13.5</v>
+      </c>
+      <c r="Q20" s="27">
+        <f t="shared" si="2"/>
+        <v>88.5</v>
+      </c>
+      <c r="R20" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
         <v>99</v>
@@ -1746,10 +2094,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -1777,21 +2125,26 @@
       <c r="N21" s="11">
         <v>0</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="11">
+      <c r="O21" s="2">
+        <v>39</v>
+      </c>
+      <c r="P21" s="26">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="R21" s="11" t="str">
+        <v>19.5</v>
+      </c>
+      <c r="Q21" s="27">
+        <f t="shared" si="2"/>
+        <v>64.5</v>
+      </c>
+      <c r="R21" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>C</v>
+      </c>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+    </row>
+    <row r="22" spans="1:21" ht="18" customHeight="1">
       <c r="A22" s="4">
         <v>12</v>
       </c>
@@ -1801,10 +2154,10 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -1832,182 +2185,202 @@
       <c r="N22" s="11">
         <v>10</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="11">
+      <c r="O22" s="2">
+        <v>14</v>
+      </c>
+      <c r="P22" s="26">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R22" s="11" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="27">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="R22" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+    </row>
+    <row r="23" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A23" s="4">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
+        <v>10</v>
+      </c>
+      <c r="K23" s="11">
+        <v>10</v>
+      </c>
+      <c r="L23" s="11">
+        <v>10</v>
+      </c>
+      <c r="M23" s="11">
+        <v>10</v>
+      </c>
+      <c r="N23" s="11">
+        <v>10</v>
+      </c>
+      <c r="O23" s="2">
+        <v>20</v>
+      </c>
+      <c r="P23" s="26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q23" s="27">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="R23" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="S23" s="33"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+    </row>
+    <row r="24" spans="1:21" ht="18" customHeight="1">
+      <c r="A24" s="4">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="11">
+        <v>10</v>
+      </c>
+      <c r="L24" s="11">
+        <v>10</v>
+      </c>
+      <c r="M24" s="11">
+        <v>10</v>
+      </c>
+      <c r="N24" s="11">
+        <v>10</v>
+      </c>
+      <c r="O24" s="2">
+        <v>32</v>
+      </c>
+      <c r="P24" s="26">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Q24" s="27">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="R24" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="S24" s="33"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+    </row>
+    <row r="25" spans="1:21" ht="18" customHeight="1">
+      <c r="A25" s="4">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>10</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="11">
+        <v>10</v>
+      </c>
+      <c r="L25" s="11">
+        <v>10</v>
+      </c>
+      <c r="M25" s="11">
+        <v>10</v>
+      </c>
+      <c r="N25" s="11">
+        <v>10</v>
+      </c>
+      <c r="O25" s="2">
+        <v>22</v>
+      </c>
+      <c r="P25" s="26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q25" s="27">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="R25" s="27" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="2">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2">
-        <v>10</v>
-      </c>
-      <c r="J23" s="2">
-        <v>10</v>
-      </c>
-      <c r="K23" s="11">
-        <v>10</v>
-      </c>
-      <c r="L23" s="11">
-        <v>10</v>
-      </c>
-      <c r="M23" s="11">
-        <v>10</v>
-      </c>
-      <c r="N23" s="11">
-        <v>10</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="11">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R23" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="2">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2">
-        <v>10</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="11">
-        <v>10</v>
-      </c>
-      <c r="L24" s="11">
-        <v>10</v>
-      </c>
-      <c r="M24" s="11">
-        <v>10</v>
-      </c>
-      <c r="N24" s="11">
-        <v>10</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="11">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="R24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>C+</v>
-      </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="2">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2">
-        <v>10</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="11">
-        <v>10</v>
-      </c>
-      <c r="L25" s="11">
-        <v>10</v>
-      </c>
-      <c r="M25" s="11">
-        <v>10</v>
-      </c>
-      <c r="N25" s="11">
-        <v>10</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="11">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="R25" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>C+</v>
-      </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="33"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+    </row>
+    <row r="26" spans="1:21" ht="18" customHeight="1">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -2017,10 +2390,10 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="2">
         <v>5</v>
       </c>
@@ -2048,21 +2421,26 @@
       <c r="N26" s="11">
         <v>10</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="11">
+      <c r="O26" s="2">
+        <v>37</v>
+      </c>
+      <c r="P26" s="26">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="R26" s="11" t="str">
+        <v>18.5</v>
+      </c>
+      <c r="Q26" s="27">
+        <f t="shared" si="2"/>
+        <v>91.5</v>
+      </c>
+      <c r="R26" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+    </row>
+    <row r="27" spans="1:21" ht="18.75" customHeight="1">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -2072,10 +2450,10 @@
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2103,21 +2481,26 @@
       <c r="N27" s="11">
         <v>10</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="11">
+      <c r="O27" s="2">
+        <v>37</v>
+      </c>
+      <c r="P27" s="26">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R27" s="11" t="str">
+        <v>18.5</v>
+      </c>
+      <c r="Q27" s="27">
+        <f t="shared" si="2"/>
+        <v>93.5</v>
+      </c>
+      <c r="R27" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S27" s="33"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+    </row>
+    <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -2127,10 +2510,10 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
@@ -2153,20 +2536,23 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="11">
+      <c r="P28" s="26">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="27">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="R28" s="11" t="str">
+      <c r="R28" s="27" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="33"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+    </row>
+    <row r="29" spans="1:21" ht="18.75" customHeight="1">
       <c r="A29" s="4">
         <v>20</v>
       </c>
@@ -2176,10 +2562,10 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="2">
         <v>5</v>
       </c>
@@ -2207,21 +2593,26 @@
       <c r="N29" s="11">
         <v>10</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="11">
+      <c r="O29" s="2">
+        <v>25</v>
+      </c>
+      <c r="P29" s="26">
         <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="R29" s="11" t="str">
+        <v>12.5</v>
+      </c>
+      <c r="Q29" s="27">
+        <f t="shared" si="2"/>
+        <v>80.5</v>
+      </c>
+      <c r="R29" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
-      </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+    </row>
+    <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -2231,10 +2622,10 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -2262,21 +2653,26 @@
       <c r="N30" s="11">
         <v>8</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="11">
+      <c r="O30" s="2">
+        <v>19</v>
+      </c>
+      <c r="P30" s="26">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="R30" s="11" t="str">
+        <v>9.5</v>
+      </c>
+      <c r="Q30" s="27">
+        <f t="shared" si="2"/>
+        <v>82.5</v>
+      </c>
+      <c r="R30" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+    </row>
+    <row r="31" spans="1:21" ht="18.75" customHeight="1">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -2286,10 +2682,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="2">
         <v>5</v>
       </c>
@@ -2317,21 +2713,26 @@
       <c r="N31" s="11">
         <v>10</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="11">
+      <c r="O31" s="2">
+        <v>28</v>
+      </c>
+      <c r="P31" s="26">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R31" s="11" t="str">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="27">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="R31" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S31" s="33"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+    </row>
+    <row r="32" spans="1:21" ht="18" customHeight="1">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -2341,10 +2742,10 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="2">
         <v>5</v>
       </c>
@@ -2372,21 +2773,26 @@
       <c r="N32" s="11">
         <v>10</v>
       </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="11">
+      <c r="O32" s="2">
+        <v>43</v>
+      </c>
+      <c r="P32" s="26">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="R32" s="11" t="str">
+        <v>21.5</v>
+      </c>
+      <c r="Q32" s="27">
+        <f t="shared" si="2"/>
+        <v>86.5</v>
+      </c>
+      <c r="R32" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
-      </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S32" s="33"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+    </row>
+    <row r="33" spans="1:21" ht="18.75" customHeight="1">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -2396,10 +2802,10 @@
       <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="2">
         <v>5</v>
       </c>
@@ -2425,21 +2831,26 @@
       <c r="N33" s="11">
         <v>10</v>
       </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="11">
+      <c r="O33" s="2">
+        <v>14</v>
+      </c>
+      <c r="P33" s="26">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="R33" s="11" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="27">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="R33" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>D+</v>
-      </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-    </row>
-    <row r="34" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>C</v>
+      </c>
+      <c r="S33" s="33"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+    </row>
+    <row r="34" spans="1:21" ht="18" customHeight="1">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -2449,10 +2860,10 @@
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="2">
         <v>5</v>
       </c>
@@ -2480,21 +2891,26 @@
       <c r="N34" s="11">
         <v>10</v>
       </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="11">
+      <c r="O34" s="2">
+        <v>32</v>
+      </c>
+      <c r="P34" s="26">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R34" s="11" t="str">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="27">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="R34" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S34" s="33"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+    </row>
+    <row r="35" spans="1:21" ht="18" customHeight="1">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -2504,10 +2920,10 @@
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="2">
         <v>5</v>
       </c>
@@ -2529,21 +2945,26 @@
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="11">
+      <c r="O35" s="2">
+        <v>10</v>
+      </c>
+      <c r="P35" s="26">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="R35" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="27">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="R35" s="27" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S35" s="33"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+    </row>
+    <row r="36" spans="1:21" ht="18.75" customHeight="1">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -2553,10 +2974,10 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="2">
         <v>5</v>
       </c>
@@ -2582,21 +3003,26 @@
       <c r="N36" s="11">
         <v>10</v>
       </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="11">
+      <c r="O36" s="2">
+        <v>32</v>
+      </c>
+      <c r="P36" s="26">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="R36" s="11" t="str">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="27">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="R36" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>C+</v>
-      </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S36" s="33"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+    </row>
+    <row r="37" spans="1:21" ht="18" customHeight="1">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -2606,10 +3032,10 @@
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="2">
         <v>5</v>
       </c>
@@ -2637,56 +3063,87 @@
       <c r="N37" s="11">
         <v>10</v>
       </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="11">
+      <c r="O37" s="2">
+        <v>22</v>
+      </c>
+      <c r="P37" s="26">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="R37" s="11" t="str">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="27">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="R37" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+        <v>A</v>
+      </c>
+      <c r="S37" s="33"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+    </row>
+    <row r="38" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A38" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="13" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-    </row>
-    <row r="39" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+    </row>
+    <row r="39" spans="1:21" ht="0.75" customHeight="1">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
+    <mergeCell ref="S9:U37"/>
+    <mergeCell ref="F38:U38"/>
+    <mergeCell ref="J3:U4"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A38:E39"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -2703,34 +3160,10 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F38:U38"/>
-    <mergeCell ref="J3:U4"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="J6:U6"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2738,11 +3171,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
@@ -2765,131 +3198,131 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:21" ht="25.5" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-    </row>
-    <row r="2" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="1:21" ht="2.25" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="J3" s="14" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="J3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-    </row>
-    <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-    </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+    </row>
+    <row r="4" spans="1:21" ht="2.25" customHeight="1">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="15" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="15" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-    </row>
-    <row r="7" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+    </row>
+    <row r="7" spans="1:21" ht="2.25" customHeight="1"/>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -2899,30 +3332,30 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-    </row>
-    <row r="9" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+    </row>
+    <row r="9" spans="1:21" ht="122.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2932,10 +3365,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="D9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -2975,11 +3408,11 @@
       <c r="R9" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="36"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="38"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2989,10 +3422,10 @@
       <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -3020,21 +3453,26 @@
       <c r="N10" s="2">
         <v>10</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="O10" s="11">
+        <v>27</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" ref="P10:P14" si="0">O10/2</f>
+        <v>13.5</v>
+      </c>
       <c r="Q10" s="11">
         <f>SUM(F10:N10,P10)</f>
-        <v>72</v>
+        <v>85.5</v>
       </c>
       <c r="R10" s="2" t="str">
-        <f t="shared" ref="R10:R21" si="0">VLOOKUP(Q10,grade_edu,2)</f>
-        <v>B</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R10:R21" si="1">VLOOKUP(Q10,grade_edu,2)</f>
+        <v>A</v>
+      </c>
+      <c r="S10" s="39"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="40"/>
+    </row>
+    <row r="11" spans="1:21" ht="18" customHeight="1">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -3044,10 +3482,10 @@
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -3075,21 +3513,26 @@
       <c r="N11" s="2">
         <v>10</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="O11" s="2">
+        <v>26</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="Q11" s="11">
-        <f t="shared" ref="Q11:Q21" si="1">SUM(F11:N11,P11)</f>
-        <v>75</v>
+        <f t="shared" ref="Q11:Q21" si="2">SUM(F11:N11,P11)</f>
+        <v>88</v>
       </c>
       <c r="R11" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="S11" s="39"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="40"/>
+    </row>
+    <row r="12" spans="1:21" ht="18" customHeight="1">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -3099,10 +3542,10 @@
       <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -3126,21 +3569,26 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="O12" s="2">
+        <v>25</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
       <c r="Q12" s="11">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="R12" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="R12" s="11" t="str">
-        <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="39"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="40"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -3150,10 +3598,10 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -3181,21 +3629,26 @@
       <c r="N13" s="2">
         <v>10</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="O13" s="2">
+        <v>22</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="Q13" s="11">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="R13" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R13" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S13" s="39"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="40"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" customHeight="1">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -3205,10 +3658,10 @@
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -3236,21 +3689,26 @@
       <c r="N14" s="2">
         <v>10</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="O14" s="2">
+        <v>25</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
       <c r="Q14" s="11">
+        <f t="shared" si="2"/>
+        <v>84.5</v>
+      </c>
+      <c r="R14" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="R14" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S14" s="39"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="40"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1">
       <c r="A15" s="4">
         <v>6</v>
       </c>
@@ -3260,10 +3718,10 @@
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -3289,21 +3747,26 @@
         <v>10</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="O15" s="2">
+        <v>12</v>
+      </c>
+      <c r="P15" s="2">
+        <f>O15/2</f>
+        <v>6</v>
+      </c>
       <c r="Q15" s="11">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="R15" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="R15" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>D+</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>C</v>
+      </c>
+      <c r="S15" s="39"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="40"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" customHeight="1">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -3313,10 +3776,10 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -3344,21 +3807,26 @@
       <c r="N16" s="2">
         <v>10</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="O16" s="2">
+        <v>32</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" ref="P16:P21" si="3">O16/2</f>
+        <v>16</v>
+      </c>
       <c r="Q16" s="11">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="R16" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R16" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S16" s="39"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="40"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -3368,10 +3836,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -3399,21 +3867,26 @@
       <c r="N17" s="2">
         <v>10</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="O17" s="2">
+        <v>25</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
       <c r="Q17" s="11">
+        <f t="shared" si="2"/>
+        <v>87.5</v>
+      </c>
+      <c r="R17" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R17" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S17" s="39"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="40"/>
+    </row>
+    <row r="18" spans="1:21" ht="18" customHeight="1">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -3423,10 +3896,10 @@
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -3454,21 +3927,26 @@
       <c r="N18" s="2">
         <v>10</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="O18" s="2">
+        <v>15</v>
+      </c>
+      <c r="P18" s="13">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
       <c r="Q18" s="11">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="R18" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="R18" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>C+</v>
-      </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>B</v>
+      </c>
+      <c r="S18" s="39"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="40"/>
+    </row>
+    <row r="19" spans="1:21" ht="18" customHeight="1">
       <c r="A19" s="4">
         <v>10</v>
       </c>
@@ -3478,10 +3956,10 @@
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -3509,21 +3987,26 @@
       <c r="N19" s="2">
         <v>10</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="O19" s="2">
+        <v>19</v>
+      </c>
+      <c r="P19" s="13">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
       <c r="Q19" s="11">
+        <f t="shared" si="2"/>
+        <v>81.5</v>
+      </c>
+      <c r="R19" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="R19" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+      <c r="S19" s="39"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="40"/>
+    </row>
+    <row r="20" spans="1:21" ht="18.75" customHeight="1">
       <c r="A20" s="4">
         <v>11</v>
       </c>
@@ -3533,10 +4016,10 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -3560,21 +4043,26 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="O20" s="2">
+        <v>12</v>
+      </c>
+      <c r="P20" s="13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="Q20" s="11">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="R20" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="R20" s="11" t="str">
-        <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="39"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="40"/>
+    </row>
+    <row r="21" spans="1:21" ht="18" customHeight="1">
       <c r="A21" s="4">
         <v>12</v>
       </c>
@@ -3584,10 +4072,10 @@
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -3611,56 +4099,71 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="O21" s="2">
+        <v>10</v>
+      </c>
+      <c r="P21" s="13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="Q21" s="11">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="R21" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="R21" s="11" t="str">
-        <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="S21" s="41"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="35"/>
+    </row>
+    <row r="22" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="13" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-    </row>
-    <row r="23" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+    </row>
+    <row r="23" spans="1:21" ht="0.75" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="S9:U21"/>
     <mergeCell ref="A22:E23"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -3677,18 +4180,10 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3697,76 +4192,78 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="2" spans="2:3">
+      <c r="B2" s="43">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="43" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="2:3">
+      <c r="B3" s="43">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="2:3">
+      <c r="B4" s="43">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="43" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="2:3">
+      <c r="B5" s="43">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="43" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="2:3">
+      <c r="B6" s="43">
         <v>65</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="43" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="2:3">
+      <c r="B7" s="43">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="43" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="2:3">
+      <c r="B8" s="43">
         <v>75</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" spans="2:3">
+      <c r="B9" s="43">
         <v>80</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="43" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Stores\Work2553\งานสอน\66-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="พลศึกษา" sheetId="3" r:id="rId1"/>
@@ -721,42 +721,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -772,6 +736,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -784,8 +751,41 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
@@ -808,8 +808,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1221,127 +1221,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="J3" s="23" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="J3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1">
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="24" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="24" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1">
@@ -1354,28 +1354,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -1387,10 +1387,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="17"/>
+      <c r="D9" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="35"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -1421,18 +1421,18 @@
       <c r="O9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="R9" s="30" t="s">
+      <c r="R9" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1">
       <c r="A10" s="4">
@@ -1444,10 +1444,10 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -1478,21 +1478,21 @@
       <c r="O10" s="2">
         <v>37</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="14">
         <f>O10/2</f>
         <v>18.5</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="17">
         <f>SUM(F10:N10,P10)</f>
         <v>93.5</v>
       </c>
-      <c r="R10" s="29" t="str">
+      <c r="R10" s="17" t="str">
         <f t="shared" ref="R10:R37" si="0">VLOOKUP(Q10,grade_edu,2)</f>
         <v>A</v>
       </c>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1">
       <c r="A11" s="4">
@@ -1504,10 +1504,10 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -1538,21 +1538,21 @@
       <c r="O11" s="2">
         <v>38</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="14">
         <f t="shared" ref="P11:P37" si="1">O11/2</f>
         <v>19</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="15">
         <f t="shared" ref="Q11:Q37" si="2">SUM(F11:N11,P11)</f>
         <v>94</v>
       </c>
-      <c r="R11" s="27" t="str">
+      <c r="R11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1">
       <c r="A12" s="4">
@@ -1564,10 +1564,10 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1598,21 +1598,21 @@
       <c r="O12" s="2">
         <v>38</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="14">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="15">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="R12" s="27" t="str">
+      <c r="R12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1">
       <c r="A13" s="4">
@@ -1624,10 +1624,10 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -1652,21 +1652,21 @@
       <c r="O13" s="2">
         <v>31</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="14">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="15">
         <f t="shared" si="2"/>
         <v>40.5</v>
       </c>
-      <c r="R13" s="27" t="str">
+      <c r="R13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
     </row>
     <row r="14" spans="1:21" ht="18" customHeight="1">
       <c r="A14" s="4">
@@ -1678,10 +1678,10 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1712,21 +1712,21 @@
       <c r="O14" s="2">
         <v>15</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="14">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="15">
         <f t="shared" si="2"/>
         <v>72.5</v>
       </c>
-      <c r="R14" s="27" t="str">
+      <c r="R14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1">
       <c r="A15" s="4">
@@ -1738,10 +1738,10 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -1772,21 +1772,21 @@
       <c r="O15" s="2">
         <v>24</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="15">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="R15" s="27" t="str">
+      <c r="R15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1">
       <c r="A16" s="4">
@@ -1798,10 +1798,10 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -1832,21 +1832,21 @@
       <c r="O16" s="2">
         <v>24</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="15">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="R16" s="27" t="str">
+      <c r="R16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
     </row>
     <row r="17" spans="1:21" ht="18.75" customHeight="1">
       <c r="A17" s="4">
@@ -1858,10 +1858,10 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -1892,21 +1892,21 @@
       <c r="O17" s="2">
         <v>27</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="14">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="15">
         <f t="shared" si="2"/>
         <v>88.5</v>
       </c>
-      <c r="R17" s="27" t="str">
+      <c r="R17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1">
       <c r="A18" s="4">
@@ -1918,10 +1918,10 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -1950,21 +1950,21 @@
       <c r="O18" s="2">
         <v>22</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="15">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="R18" s="27" t="str">
+      <c r="R18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
     </row>
     <row r="19" spans="1:21" ht="18" customHeight="1">
       <c r="A19" s="4">
@@ -1976,10 +1976,10 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -2010,21 +2010,21 @@
       <c r="O19" s="2">
         <v>24</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="15">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="R19" s="27" t="str">
+      <c r="R19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
     </row>
     <row r="20" spans="1:21" ht="18.75" customHeight="1">
       <c r="A20" s="4">
@@ -2036,10 +2036,10 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K20" s="11">
         <v>10</v>
@@ -2062,29 +2062,29 @@
         <v>10</v>
       </c>
       <c r="M20" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N20" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O20" s="2">
         <v>27</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="14">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="15">
         <f t="shared" si="2"/>
-        <v>88.5</v>
-      </c>
-      <c r="R20" s="27" t="str">
+        <v>73.5</v>
+      </c>
+      <c r="R20" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
+        <v>B</v>
+      </c>
+      <c r="S20" s="22"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
     </row>
     <row r="21" spans="1:21" ht="18.75" customHeight="1">
       <c r="A21" s="4"/>
@@ -2094,10 +2094,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -2128,21 +2128,21 @@
       <c r="O21" s="2">
         <v>39</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="14">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="Q21" s="27">
+      <c r="Q21" s="15">
         <f t="shared" si="2"/>
         <v>64.5</v>
       </c>
-      <c r="R21" s="27" t="str">
+      <c r="R21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
     </row>
     <row r="22" spans="1:21" ht="18" customHeight="1">
       <c r="A22" s="4">
@@ -2154,10 +2154,10 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -2188,21 +2188,21 @@
       <c r="O22" s="2">
         <v>14</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Q22" s="27">
+      <c r="Q22" s="15">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="R22" s="27" t="str">
+      <c r="R22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
     </row>
     <row r="23" spans="1:21" ht="18.75" customHeight="1">
       <c r="A23" s="4">
@@ -2214,10 +2214,10 @@
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="2">
         <v>5</v>
       </c>
@@ -2248,21 +2248,21 @@
       <c r="O23" s="2">
         <v>20</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="Q23" s="15">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="R23" s="27" t="str">
+      <c r="R23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S23" s="33"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
     </row>
     <row r="24" spans="1:21" ht="18" customHeight="1">
       <c r="A24" s="4">
@@ -2274,10 +2274,10 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -2306,21 +2306,21 @@
       <c r="O24" s="2">
         <v>32</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="Q24" s="15">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="R24" s="27" t="str">
+      <c r="R24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S24" s="33"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
     </row>
     <row r="25" spans="1:21" ht="18" customHeight="1">
       <c r="A25" s="4">
@@ -2332,10 +2332,10 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="2">
         <v>5</v>
       </c>
@@ -2364,21 +2364,21 @@
       <c r="O25" s="2">
         <v>22</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q25" s="27">
+      <c r="Q25" s="15">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="R25" s="27" t="str">
+      <c r="R25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S25" s="33"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
     </row>
     <row r="26" spans="1:21" ht="18" customHeight="1">
       <c r="A26" s="4">
@@ -2390,10 +2390,10 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="2">
         <v>5</v>
       </c>
@@ -2424,21 +2424,21 @@
       <c r="O26" s="2">
         <v>37</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="14">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q26" s="15">
         <f t="shared" si="2"/>
         <v>91.5</v>
       </c>
-      <c r="R26" s="27" t="str">
+      <c r="R26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S26" s="33"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
     </row>
     <row r="27" spans="1:21" ht="18.75" customHeight="1">
       <c r="A27" s="4">
@@ -2450,10 +2450,10 @@
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2484,21 +2484,21 @@
       <c r="O27" s="2">
         <v>37</v>
       </c>
-      <c r="P27" s="26">
+      <c r="P27" s="14">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="Q27" s="27">
+      <c r="Q27" s="15">
         <f t="shared" si="2"/>
         <v>93.5</v>
       </c>
-      <c r="R27" s="27" t="str">
+      <c r="R27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S27" s="33"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="4">
@@ -2510,10 +2510,10 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
@@ -2536,21 +2536,21 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="26">
+      <c r="P28" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="27">
+      <c r="Q28" s="15">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="R28" s="27" t="str">
+      <c r="R28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
     </row>
     <row r="29" spans="1:21" ht="18.75" customHeight="1">
       <c r="A29" s="4">
@@ -2562,10 +2562,10 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="2">
         <v>5</v>
       </c>
@@ -2596,21 +2596,21 @@
       <c r="O29" s="2">
         <v>25</v>
       </c>
-      <c r="P29" s="26">
+      <c r="P29" s="14">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="Q29" s="27">
+      <c r="Q29" s="15">
         <f t="shared" si="2"/>
         <v>80.5</v>
       </c>
-      <c r="R29" s="27" t="str">
+      <c r="R29" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="4">
@@ -2622,10 +2622,10 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -2656,21 +2656,21 @@
       <c r="O30" s="2">
         <v>19</v>
       </c>
-      <c r="P30" s="26">
+      <c r="P30" s="14">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="Q30" s="27">
+      <c r="Q30" s="15">
         <f t="shared" si="2"/>
         <v>82.5</v>
       </c>
-      <c r="R30" s="27" t="str">
+      <c r="R30" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
     </row>
     <row r="31" spans="1:21" ht="18.75" customHeight="1">
       <c r="A31" s="4">
@@ -2682,10 +2682,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="2">
         <v>5</v>
       </c>
@@ -2716,21 +2716,21 @@
       <c r="O31" s="2">
         <v>28</v>
       </c>
-      <c r="P31" s="26">
+      <c r="P31" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="Q31" s="15">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="R31" s="27" t="str">
+      <c r="R31" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1">
       <c r="A32" s="4">
@@ -2742,10 +2742,10 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="2">
         <v>5</v>
       </c>
@@ -2776,21 +2776,21 @@
       <c r="O32" s="2">
         <v>43</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="14">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="Q32" s="27">
+      <c r="Q32" s="15">
         <f t="shared" si="2"/>
         <v>86.5</v>
       </c>
-      <c r="R32" s="27" t="str">
+      <c r="R32" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
     </row>
     <row r="33" spans="1:21" ht="18.75" customHeight="1">
       <c r="A33" s="4">
@@ -2802,10 +2802,10 @@
       <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="2">
         <v>5</v>
       </c>
@@ -2834,21 +2834,21 @@
       <c r="O33" s="2">
         <v>14</v>
       </c>
-      <c r="P33" s="26">
+      <c r="P33" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Q33" s="27">
+      <c r="Q33" s="15">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="R33" s="27" t="str">
+      <c r="R33" s="15" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
     </row>
     <row r="34" spans="1:21" ht="18" customHeight="1">
       <c r="A34" s="4">
@@ -2860,10 +2860,10 @@
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="2">
         <v>5</v>
       </c>
@@ -2894,21 +2894,21 @@
       <c r="O34" s="2">
         <v>32</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q34" s="27">
+      <c r="Q34" s="15">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="R34" s="27" t="str">
+      <c r="R34" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S34" s="33"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
     </row>
     <row r="35" spans="1:21" ht="18" customHeight="1">
       <c r="A35" s="4">
@@ -2920,10 +2920,10 @@
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="2">
         <v>5</v>
       </c>
@@ -2948,21 +2948,21 @@
       <c r="O35" s="2">
         <v>10</v>
       </c>
-      <c r="P35" s="26">
+      <c r="P35" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Q35" s="27">
+      <c r="Q35" s="15">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="R35" s="27" t="str">
+      <c r="R35" s="15" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="S35" s="33"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
     </row>
     <row r="36" spans="1:21" ht="18.75" customHeight="1">
       <c r="A36" s="4">
@@ -2974,10 +2974,10 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="2">
         <v>5</v>
       </c>
@@ -3006,21 +3006,21 @@
       <c r="O36" s="2">
         <v>32</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q36" s="27">
+      <c r="Q36" s="15">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="R36" s="27" t="str">
+      <c r="R36" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S36" s="33"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
     </row>
     <row r="37" spans="1:21" ht="18" customHeight="1">
       <c r="A37" s="4">
@@ -3032,10 +3032,10 @@
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="18"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="2">
         <v>5</v>
       </c>
@@ -3066,84 +3066,58 @@
       <c r="O37" s="2">
         <v>22</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q37" s="27">
+      <c r="Q37" s="15">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="R37" s="27" t="str">
+      <c r="R37" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S37" s="33"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="22" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
     </row>
     <row r="39" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="S9:U37"/>
-    <mergeCell ref="F38:U38"/>
-    <mergeCell ref="J3:U4"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="J6:U6"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A38:E39"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -3160,6 +3134,32 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="S9:U37"/>
+    <mergeCell ref="F38:U38"/>
+    <mergeCell ref="J3:U4"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="J6:U6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3171,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3199,127 +3199,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="J3" s="23" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="J3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1">
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="24" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="24" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1">
@@ -3332,28 +3332,28 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -3365,10 +3365,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="17"/>
+      <c r="D9" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="35"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -3422,10 +3422,10 @@
       <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>A</v>
       </c>
       <c r="S10" s="39"/>
-      <c r="T10" s="34"/>
+      <c r="T10" s="23"/>
       <c r="U10" s="40"/>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1">
@@ -3482,10 +3482,10 @@
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>A</v>
       </c>
       <c r="S11" s="39"/>
-      <c r="T11" s="34"/>
+      <c r="T11" s="23"/>
       <c r="U11" s="40"/>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1">
@@ -3542,10 +3542,10 @@
       <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>E</v>
       </c>
       <c r="S12" s="39"/>
-      <c r="T12" s="34"/>
+      <c r="T12" s="23"/>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1">
@@ -3598,10 +3598,10 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>A</v>
       </c>
       <c r="S13" s="39"/>
-      <c r="T13" s="34"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" ht="18" customHeight="1">
@@ -3658,10 +3658,10 @@
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>A</v>
       </c>
       <c r="S14" s="39"/>
-      <c r="T14" s="34"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1">
@@ -3718,10 +3718,10 @@
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>C</v>
       </c>
       <c r="S15" s="39"/>
-      <c r="T15" s="34"/>
+      <c r="T15" s="23"/>
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1">
@@ -3776,10 +3776,10 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>A</v>
       </c>
       <c r="S16" s="39"/>
-      <c r="T16" s="34"/>
+      <c r="T16" s="23"/>
       <c r="U16" s="40"/>
     </row>
     <row r="17" spans="1:21" ht="18.75" customHeight="1">
@@ -3836,10 +3836,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>A</v>
       </c>
       <c r="S17" s="39"/>
-      <c r="T17" s="34"/>
+      <c r="T17" s="23"/>
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1">
@@ -3896,10 +3896,10 @@
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>B</v>
       </c>
       <c r="S18" s="39"/>
-      <c r="T18" s="34"/>
+      <c r="T18" s="23"/>
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="18" customHeight="1">
@@ -3956,10 +3956,10 @@
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>A</v>
       </c>
       <c r="S19" s="39"/>
-      <c r="T19" s="34"/>
+      <c r="T19" s="23"/>
       <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" ht="18.75" customHeight="1">
@@ -4016,10 +4016,10 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -4027,13 +4027,13 @@
         <v>5</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="2">
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20" s="11">
         <v>10</v>
@@ -4041,8 +4041,12 @@
       <c r="L20" s="11">
         <v>10</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="M20" s="2">
+        <v>5</v>
+      </c>
+      <c r="N20" s="2">
+        <v>5</v>
+      </c>
       <c r="O20" s="2">
         <v>12</v>
       </c>
@@ -4052,14 +4056,14 @@
       </c>
       <c r="Q20" s="11">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="R20" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="S20" s="39"/>
-      <c r="T20" s="34"/>
+      <c r="T20" s="23"/>
       <c r="U20" s="40"/>
     </row>
     <row r="21" spans="1:21" ht="18" customHeight="1">
@@ -4072,10 +4076,10 @@
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -4116,54 +4120,44 @@
       </c>
       <c r="S21" s="41"/>
       <c r="T21" s="42"/>
-      <c r="U21" s="35"/>
+      <c r="U21" s="43"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="22" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
     </row>
     <row r="23" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="S9:U21"/>
     <mergeCell ref="A22:E23"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -4180,6 +4174,16 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="S9:U21"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4198,66 +4202,66 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="43">
+      <c r="B2" s="19">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="43">
+      <c r="B3" s="19">
         <v>50</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="43">
+      <c r="B4" s="19">
         <v>55</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="19" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="43">
+      <c r="B5" s="19">
         <v>60</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="43">
+      <c r="B6" s="19">
         <v>65</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="19" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="43">
+      <c r="B7" s="19">
         <v>70</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="43">
+      <c r="B8" s="19">
         <v>75</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="19" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="43">
+      <c r="B9" s="19">
         <v>80</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="19" t="s">
         <v>120</v>
       </c>
     </row>

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Stores\Work2553\งานสอน\66-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Stores\Work2553\งานสอน\66-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -739,6 +739,33 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -759,33 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1221,127 +1221,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="J3" s="25" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="J3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1">
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="26" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="26" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1">
@@ -1354,10 +1354,10 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="28" t="s">
         <v>65</v>
       </c>
@@ -1371,11 +1371,11 @@
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
     </row>
     <row r="9" spans="1:21" ht="122.25" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -1387,10 +1387,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="35"/>
+      <c r="D9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -1430,9 +1430,9 @@
       <c r="R9" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1">
       <c r="A10" s="4">
@@ -1444,10 +1444,10 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -1490,9 +1490,9 @@
         <f t="shared" ref="R10:R37" si="0">VLOOKUP(Q10,grade_edu,2)</f>
         <v>A</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1">
       <c r="A11" s="4">
@@ -1504,10 +1504,10 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -1550,9 +1550,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1">
       <c r="A12" s="4">
@@ -1564,10 +1564,10 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1610,9 +1610,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1">
       <c r="A13" s="4">
@@ -1624,10 +1624,10 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -1664,9 +1664,9 @@
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="S13" s="22"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
     </row>
     <row r="14" spans="1:21" ht="18" customHeight="1">
       <c r="A14" s="4">
@@ -1678,10 +1678,10 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1724,9 +1724,9 @@
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1">
       <c r="A15" s="4">
@@ -1738,10 +1738,10 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -1784,9 +1784,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S15" s="22"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1">
       <c r="A16" s="4">
@@ -1798,10 +1798,10 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -1844,9 +1844,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="18.75" customHeight="1">
       <c r="A17" s="4">
@@ -1858,10 +1858,10 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -1904,9 +1904,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1">
       <c r="A18" s="4">
@@ -1918,10 +1918,10 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -1962,9 +1962,9 @@
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S18" s="22"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="18" customHeight="1">
       <c r="A19" s="4">
@@ -1976,10 +1976,10 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -2022,9 +2022,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S19" s="22"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" ht="18.75" customHeight="1">
       <c r="A20" s="4">
@@ -2036,10 +2036,10 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -2082,9 +2082,9 @@
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="S20" s="22"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
     </row>
     <row r="21" spans="1:21" ht="18.75" customHeight="1">
       <c r="A21" s="4"/>
@@ -2094,10 +2094,10 @@
       <c r="C21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -2140,9 +2140,9 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="S21" s="22"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
     </row>
     <row r="22" spans="1:21" ht="18" customHeight="1">
       <c r="A22" s="4">
@@ -2154,10 +2154,10 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -2200,9 +2200,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S22" s="22"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="18.75" customHeight="1">
       <c r="A23" s="4">
@@ -2214,10 +2214,10 @@
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="27"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="2">
         <v>5</v>
       </c>
@@ -2260,9 +2260,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S23" s="22"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="18" customHeight="1">
       <c r="A24" s="4">
@@ -2274,10 +2274,10 @@
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="2">
         <v>5</v>
       </c>
@@ -2318,9 +2318,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S24" s="22"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="18" customHeight="1">
       <c r="A25" s="4">
@@ -2332,10 +2332,10 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="2">
         <v>5</v>
       </c>
@@ -2376,9 +2376,9 @@
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="S25" s="22"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="18" customHeight="1">
       <c r="A26" s="4">
@@ -2390,10 +2390,10 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="2">
         <v>5</v>
       </c>
@@ -2436,9 +2436,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S26" s="22"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" ht="18.75" customHeight="1">
       <c r="A27" s="4">
@@ -2450,10 +2450,10 @@
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -2496,9 +2496,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S27" s="22"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="4">
@@ -2510,10 +2510,10 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="2">
         <v>5</v>
       </c>
@@ -2548,9 +2548,9 @@
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="S28" s="22"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
     </row>
     <row r="29" spans="1:21" ht="18.75" customHeight="1">
       <c r="A29" s="4">
@@ -2562,10 +2562,10 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="2">
         <v>5</v>
       </c>
@@ -2608,9 +2608,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S29" s="22"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="4">
@@ -2622,10 +2622,10 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -2668,9 +2668,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S30" s="22"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="18.75" customHeight="1">
       <c r="A31" s="4">
@@ -2682,10 +2682,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="2">
         <v>5</v>
       </c>
@@ -2728,9 +2728,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S31" s="22"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1">
       <c r="A32" s="4">
@@ -2742,10 +2742,10 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="27"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="2">
         <v>5</v>
       </c>
@@ -2788,9 +2788,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S32" s="22"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
     </row>
     <row r="33" spans="1:21" ht="18.75" customHeight="1">
       <c r="A33" s="4">
@@ -2802,10 +2802,10 @@
       <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="27"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="2">
         <v>5</v>
       </c>
@@ -2846,9 +2846,9 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="S33" s="22"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
     </row>
     <row r="34" spans="1:21" ht="18" customHeight="1">
       <c r="A34" s="4">
@@ -2860,10 +2860,10 @@
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="27"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="2">
         <v>5</v>
       </c>
@@ -2906,9 +2906,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S34" s="22"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
     </row>
     <row r="35" spans="1:21" ht="18" customHeight="1">
       <c r="A35" s="4">
@@ -2920,10 +2920,10 @@
       <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="27"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="2">
         <v>5</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35" s="2">
         <v>10</v>
@@ -2954,15 +2954,15 @@
       </c>
       <c r="Q35" s="15">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="S35" s="22"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
     </row>
     <row r="36" spans="1:21" ht="18.75" customHeight="1">
       <c r="A36" s="4">
@@ -2974,10 +2974,10 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="27"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="2">
         <v>5</v>
       </c>
@@ -3018,9 +3018,9 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S36" s="22"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
     </row>
     <row r="37" spans="1:21" ht="18" customHeight="1">
       <c r="A37" s="4">
@@ -3032,10 +3032,10 @@
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="27"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="2">
         <v>5</v>
       </c>
@@ -3078,46 +3078,72 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="S37" s="22"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="24" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
     </row>
     <row r="39" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="S9:U37"/>
+    <mergeCell ref="F38:U38"/>
+    <mergeCell ref="J3:U4"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F8:U8"/>
     <mergeCell ref="A38:E39"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -3134,32 +3160,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="S9:U37"/>
-    <mergeCell ref="F38:U38"/>
-    <mergeCell ref="J3:U4"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="J6:U6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3171,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3199,127 +3199,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:21" ht="2.25" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="J3" s="25" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="J3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1">
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="26" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="26" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
     </row>
     <row r="7" spans="1:21" ht="2.25" customHeight="1"/>
     <row r="8" spans="1:21" ht="18.75" customHeight="1">
@@ -3332,10 +3332,10 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="28" t="s">
         <v>65</v>
       </c>
@@ -3365,10 +3365,10 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="35"/>
+      <c r="D9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="8" t="s">
         <v>97</v>
       </c>
@@ -3422,10 +3422,10 @@
       <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>A</v>
       </c>
       <c r="S10" s="39"/>
-      <c r="T10" s="23"/>
+      <c r="T10" s="32"/>
       <c r="U10" s="40"/>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1">
@@ -3482,10 +3482,10 @@
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>A</v>
       </c>
       <c r="S11" s="39"/>
-      <c r="T11" s="23"/>
+      <c r="T11" s="32"/>
       <c r="U11" s="40"/>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1">
@@ -3542,10 +3542,10 @@
       <c r="C12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="11">
         <v>10</v>
@@ -3568,7 +3568,9 @@
         <v>0</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
       <c r="O12" s="2">
         <v>25</v>
       </c>
@@ -3578,14 +3580,14 @@
       </c>
       <c r="Q12" s="11">
         <f t="shared" si="2"/>
-        <v>42.5</v>
+        <v>52.5</v>
       </c>
       <c r="R12" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="S12" s="39"/>
-      <c r="T12" s="23"/>
+      <c r="T12" s="32"/>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1">
@@ -3598,10 +3600,10 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -3645,7 +3647,7 @@
         <v>A</v>
       </c>
       <c r="S13" s="39"/>
-      <c r="T13" s="23"/>
+      <c r="T13" s="32"/>
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" ht="18" customHeight="1">
@@ -3658,10 +3660,10 @@
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -3705,7 +3707,7 @@
         <v>A</v>
       </c>
       <c r="S14" s="39"/>
-      <c r="T14" s="23"/>
+      <c r="T14" s="32"/>
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1">
@@ -3718,10 +3720,10 @@
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -3763,7 +3765,7 @@
         <v>C</v>
       </c>
       <c r="S15" s="39"/>
-      <c r="T15" s="23"/>
+      <c r="T15" s="32"/>
       <c r="U15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1">
@@ -3776,10 +3778,10 @@
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="2">
         <v>5</v>
       </c>
@@ -3823,7 +3825,7 @@
         <v>A</v>
       </c>
       <c r="S16" s="39"/>
-      <c r="T16" s="23"/>
+      <c r="T16" s="32"/>
       <c r="U16" s="40"/>
     </row>
     <row r="17" spans="1:21" ht="18.75" customHeight="1">
@@ -3836,10 +3838,10 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>A</v>
       </c>
       <c r="S17" s="39"/>
-      <c r="T17" s="23"/>
+      <c r="T17" s="32"/>
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1">
@@ -3896,10 +3898,10 @@
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="2">
         <v>5</v>
       </c>
@@ -3943,7 +3945,7 @@
         <v>B</v>
       </c>
       <c r="S18" s="39"/>
-      <c r="T18" s="23"/>
+      <c r="T18" s="32"/>
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" ht="18" customHeight="1">
@@ -3956,10 +3958,10 @@
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="2">
         <v>5</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>A</v>
       </c>
       <c r="S19" s="39"/>
-      <c r="T19" s="23"/>
+      <c r="T19" s="32"/>
       <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" ht="18.75" customHeight="1">
@@ -4016,10 +4018,10 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="2">
         <v>5</v>
       </c>
@@ -4063,7 +4065,7 @@
         <v>C</v>
       </c>
       <c r="S20" s="39"/>
-      <c r="T20" s="23"/>
+      <c r="T20" s="32"/>
       <c r="U20" s="40"/>
     </row>
     <row r="21" spans="1:21" ht="18" customHeight="1">
@@ -4076,10 +4078,10 @@
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -4123,41 +4125,51 @@
       <c r="U21" s="43"/>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="24" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
     </row>
     <row r="23" spans="1:21" ht="0.75" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="S9:U21"/>
     <mergeCell ref="A22:E23"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="D8:E8"/>
@@ -4174,16 +4186,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="S9:U21"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/images/Grade-พละ-นาฏศิลป์.xlsx
+++ b/images/Grade-พละ-นาฏศิลป์.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Stores\Work2553\งานสอน\66-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -682,7 +682,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,6 +810,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1193,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1483,8 +1486,8 @@
         <v>18.5</v>
       </c>
       <c r="Q10" s="17">
-        <f>SUM(F10:N10,P10)</f>
-        <v>93.5</v>
+        <f>ROUND(SUM(F10:N10,P10),0)</f>
+        <v>94</v>
       </c>
       <c r="R10" s="17" t="str">
         <f t="shared" ref="R10:R37" si="0">VLOOKUP(Q10,grade_edu,2)</f>
@@ -1542,8 +1545,8 @@
         <f t="shared" ref="P11:P37" si="1">O11/2</f>
         <v>19</v>
       </c>
-      <c r="Q11" s="15">
-        <f t="shared" ref="Q11:Q37" si="2">SUM(F11:N11,P11)</f>
+      <c r="Q11" s="17">
+        <f t="shared" ref="Q11:Q37" si="2">ROUND(SUM(F11:N11,P11),0)</f>
         <v>94</v>
       </c>
       <c r="R11" s="15" t="str">
@@ -1602,7 +1605,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="17">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
@@ -1656,9 +1659,9 @@
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="17">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="0"/>
@@ -1716,9 +1719,9 @@
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="17">
         <f t="shared" si="2"/>
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="0"/>
@@ -1776,7 +1779,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="17">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
@@ -1836,7 +1839,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="17">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
@@ -1896,9 +1899,9 @@
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="17">
         <f t="shared" si="2"/>
-        <v>88.5</v>
+        <v>89</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="0"/>
@@ -1954,7 +1957,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="17">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
@@ -2014,7 +2017,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="17">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
@@ -2074,9 +2077,9 @@
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="17">
         <f t="shared" si="2"/>
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="0"/>
@@ -2132,13 +2135,13 @@
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="17">
         <f t="shared" si="2"/>
-        <v>64.5</v>
+        <v>65</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>C+</v>
       </c>
       <c r="S21" s="31"/>
       <c r="T21" s="32"/>
@@ -2192,7 +2195,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="17">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
@@ -2252,7 +2255,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="17">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
@@ -2310,7 +2313,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="17">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
@@ -2368,7 +2371,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="17">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
@@ -2428,9 +2431,9 @@
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="17">
         <f t="shared" si="2"/>
-        <v>91.5</v>
+        <v>92</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="0"/>
@@ -2488,9 +2491,9 @@
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="17">
         <f t="shared" si="2"/>
-        <v>93.5</v>
+        <v>94</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="0"/>
@@ -2540,7 +2543,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="17">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -2600,9 +2603,9 @@
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="17">
         <f t="shared" si="2"/>
-        <v>80.5</v>
+        <v>81</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="0"/>
@@ -2660,9 +2663,9 @@
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="17">
         <f t="shared" si="2"/>
-        <v>82.5</v>
+        <v>83</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="0"/>
@@ -2720,7 +2723,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q31" s="17">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
@@ -2780,9 +2783,9 @@
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32" s="17">
         <f t="shared" si="2"/>
-        <v>86.5</v>
+        <v>87</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="0"/>
@@ -2838,7 +2841,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="Q33" s="17">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
@@ -2898,7 +2901,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q34" s="17">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
@@ -2936,7 +2939,9 @@
       <c r="I35" s="2">
         <v>10</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2">
+        <v>5</v>
+      </c>
       <c r="K35" s="11">
         <v>10</v>
       </c>
@@ -2952,13 +2957,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q35" s="17">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="S35" s="31"/>
       <c r="T35" s="32"/>
@@ -3010,7 +3015,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q36" s="15">
+      <c r="Q36" s="17">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
@@ -3070,7 +3075,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q37" s="15">
+      <c r="Q37" s="17">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
@@ -3171,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3460,9 +3465,9 @@
         <f t="shared" ref="P10:P14" si="0">O10/2</f>
         <v>13.5</v>
       </c>
-      <c r="Q10" s="11">
-        <f>SUM(F10:N10,P10)</f>
-        <v>85.5</v>
+      <c r="Q10" s="44">
+        <f>ROUND(SUM(F10:N10,P10),0)</f>
+        <v>86</v>
       </c>
       <c r="R10" s="2" t="str">
         <f t="shared" ref="R10:R21" si="1">VLOOKUP(Q10,grade_edu,2)</f>
@@ -3520,8 +3525,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Q11" s="11">
-        <f t="shared" ref="Q11:Q21" si="2">SUM(F11:N11,P11)</f>
+      <c r="Q11" s="44">
+        <f t="shared" ref="Q11:Q21" si="2">ROUND(SUM(F11:N11,P11),0)</f>
         <v>88</v>
       </c>
       <c r="R11" s="11" t="str">
@@ -3578,9 +3583,9 @@
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="44">
         <f t="shared" si="2"/>
-        <v>52.5</v>
+        <v>53</v>
       </c>
       <c r="R12" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3638,7 +3643,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="44">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
@@ -3698,9 +3703,9 @@
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="44">
         <f t="shared" si="2"/>
-        <v>84.5</v>
+        <v>85</v>
       </c>
       <c r="R14" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3756,7 +3761,7 @@
         <f>O15/2</f>
         <v>6</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="44">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
@@ -3816,7 +3821,7 @@
         <f t="shared" ref="P16:P21" si="3">O16/2</f>
         <v>16</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="44">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
@@ -3876,9 +3881,9 @@
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="44">
         <f t="shared" si="2"/>
-        <v>87.5</v>
+        <v>88</v>
       </c>
       <c r="R17" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3936,9 +3941,9 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="44">
         <f t="shared" si="2"/>
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="R18" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3996,9 +4001,9 @@
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="44">
         <f t="shared" si="2"/>
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="R19" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4056,7 +4061,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="44">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -4112,7 +4117,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="44">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
